--- a/track.xlsx
+++ b/track.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Builds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\disney-clone-youtube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2C2F35-EDBC-494E-9229-1E081AC680C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAB5F5A-3500-437E-9AB9-C0910D2CF204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="3" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -10152,11 +10152,11 @@
       </c>
       <c r="E4" s="7">
         <f ca="1">SUMIF(Table57815923[CHECK],"Done",E$5:E$72)+(((SUM($F$5:$F$369))-MOD($F$4,60))/60)</f>
-        <v>37.666666666666671</v>
+        <v>38</v>
       </c>
       <c r="F4" s="7">
         <f ca="1">MOD(SUMIF(Table578159235[CHECK],"Done",(F$5:F$72)),60)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -21589,8 +21589,8 @@
   <dimension ref="A1:G381"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <pane ySplit="4" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -21633,11 +21633,11 @@
       <c r="D3" s="25"/>
       <c r="E3" s="5">
         <f ca="1">(E4+(F4/60))/60</f>
-        <v>0.33583333333333332</v>
+        <v>0.63916666666666666</v>
       </c>
       <c r="F3" s="6">
         <f ca="1">(E4+(F4/60))</f>
-        <v>20.149999999999999</v>
+        <v>38.35</v>
       </c>
       <c r="G3" s="20"/>
     </row>
@@ -21656,11 +21656,11 @@
       </c>
       <c r="E4" s="7">
         <f ca="1">SUMIF(Table57815923[CHECK],"Done",E$5:E$72)+(((SUM($F$5:$F$369))-MOD($F$4,60))/60)</f>
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F4" s="7">
         <f ca="1">MOD(SUMIF(Table578159235[CHECK],"Done",(F$5:F$72)),60)</f>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G4" s="20"/>
     </row>
@@ -22325,9 +22325,15 @@
       <c r="C36" s="1">
         <v>1.4444444444444499E-2</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="2"/>
+      <c r="D36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="14">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="17">
@@ -22340,9 +22346,15 @@
       <c r="C37" s="1">
         <v>1.4895833333333299E-2</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="2"/>
+      <c r="D37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="14">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="17">
@@ -22355,9 +22367,15 @@
       <c r="C38" s="1">
         <v>1.53472222222222E-2</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="2"/>
+      <c r="D38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="14">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="17">
@@ -22370,9 +22388,15 @@
       <c r="C39" s="1">
         <v>1.57986111111111E-2</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="2"/>
+      <c r="D39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="14">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17">
@@ -22385,9 +22409,15 @@
       <c r="C40" s="1">
         <v>1.6250000000000001E-2</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="2"/>
+      <c r="D40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="14">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="17">
@@ -22400,9 +22430,15 @@
       <c r="C41" s="1">
         <v>1.6701388888888901E-2</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="2"/>
+      <c r="D41" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="14">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17">
@@ -22415,9 +22451,15 @@
       <c r="C42" s="1">
         <v>1.7152777777777801E-2</v>
       </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="2"/>
+      <c r="D42" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="14">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="17">
@@ -22430,9 +22472,15 @@
       <c r="C43" s="1">
         <v>1.7604166666666698E-2</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="2"/>
+      <c r="D43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="14">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="17">
@@ -22445,9 +22493,15 @@
       <c r="C44" s="1">
         <v>1.8055555555555599E-2</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="2"/>
+      <c r="D44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="14">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="17">
@@ -22460,9 +22514,15 @@
       <c r="C45" s="1">
         <v>1.8506944444444499E-2</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="2"/>
+      <c r="D45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="14">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="17">
@@ -22475,9 +22535,15 @@
       <c r="C46" s="1">
         <v>1.8958333333333299E-2</v>
       </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="2"/>
+      <c r="D46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="14">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="17">
@@ -22490,9 +22556,15 @@
       <c r="C47" s="1">
         <v>1.94097222222222E-2</v>
       </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="2"/>
+      <c r="D47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="14">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17">
@@ -22505,9 +22577,15 @@
       <c r="C48" s="1">
         <v>1.98611111111111E-2</v>
       </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="2"/>
+      <c r="D48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="14">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="49" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="17">
@@ -22520,9 +22598,15 @@
       <c r="C49" s="1">
         <v>2.0312500000000001E-2</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="2"/>
+      <c r="D49" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="14">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="17">
@@ -22535,9 +22619,15 @@
       <c r="C50" s="1">
         <v>2.0763888888888901E-2</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="2"/>
+      <c r="D50" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="14">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="51" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="17">
@@ -22550,9 +22640,15 @@
       <c r="C51" s="1">
         <v>2.1215277777777802E-2</v>
       </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="2"/>
+      <c r="D51" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="14">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="52" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="17">
@@ -22565,9 +22661,15 @@
       <c r="C52" s="1">
         <v>2.1666666666666699E-2</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="2"/>
+      <c r="D52" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="14">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="53" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="17">
@@ -22580,9 +22682,15 @@
       <c r="C53" s="1">
         <v>2.2118055555555599E-2</v>
       </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="2"/>
+      <c r="D53" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="14">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="54" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17">
@@ -22595,9 +22703,15 @@
       <c r="C54" s="1">
         <v>2.25694444444445E-2</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="2"/>
+      <c r="D54" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="14">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="17">
@@ -22610,9 +22724,15 @@
       <c r="C55" s="1">
         <v>2.3020833333333299E-2</v>
       </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="2"/>
+      <c r="D55" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="14">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="17">
@@ -22625,9 +22745,15 @@
       <c r="C56" s="1">
         <v>2.34722222222222E-2</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="2"/>
+      <c r="D56" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="14">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="57" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="17">
@@ -22640,9 +22766,15 @@
       <c r="C57" s="1">
         <v>2.39236111111111E-2</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="2"/>
+      <c r="D57" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="14">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="17">
@@ -22655,9 +22787,15 @@
       <c r="C58" s="1">
         <v>2.4375000000000001E-2</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="2"/>
+      <c r="D58" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="14">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="59" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="17">
@@ -22670,9 +22808,15 @@
       <c r="C59" s="1">
         <v>2.4826388888888901E-2</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="2"/>
+      <c r="D59" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="14">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="60" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="17">
@@ -22685,9 +22829,15 @@
       <c r="C60" s="1">
         <v>2.5277777777777798E-2</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="2"/>
+      <c r="D60" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="14">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="61" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="17">
@@ -22700,9 +22850,15 @@
       <c r="C61" s="1">
         <v>2.5729166666666699E-2</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="2"/>
+      <c r="D61" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="14">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="62" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="17">
@@ -22715,9 +22871,15 @@
       <c r="C62" s="1">
         <v>2.6180555555555599E-2</v>
       </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="2"/>
+      <c r="D62" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="14">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="63" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="17">
@@ -22730,9 +22892,15 @@
       <c r="C63" s="1">
         <v>2.66319444444445E-2</v>
       </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="2"/>
+      <c r="D63" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="14">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="64" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="17">

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\disney-clone-youtube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAB5F5A-3500-437E-9AB9-C0910D2CF204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B33524F-AEB5-4A31-87F7-B614F5417B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -21589,8 +21589,8 @@
   <dimension ref="A1:G381"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J57" sqref="J57"/>
+      <pane ySplit="4" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D67" sqref="D67:F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -21633,11 +21633,11 @@
       <c r="D3" s="25"/>
       <c r="E3" s="5">
         <f ca="1">(E4+(F4/60))/60</f>
-        <v>0.63916666666666666</v>
+        <v>0.6825</v>
       </c>
       <c r="F3" s="6">
         <f ca="1">(E4+(F4/60))</f>
-        <v>38.35</v>
+        <v>40.950000000000003</v>
       </c>
       <c r="G3" s="20"/>
     </row>
@@ -21656,11 +21656,11 @@
       </c>
       <c r="E4" s="7">
         <f ca="1">SUMIF(Table57815923[CHECK],"Done",E$5:E$72)+(((SUM($F$5:$F$369))-MOD($F$4,60))/60)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F4" s="7">
         <f ca="1">MOD(SUMIF(Table578159235[CHECK],"Done",(F$5:F$72)),60)</f>
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="G4" s="20"/>
     </row>
@@ -22913,9 +22913,15 @@
       <c r="C64" s="1">
         <v>2.70833333333333E-2</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="2"/>
+      <c r="D64" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="14">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="65" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="17">
@@ -22928,9 +22934,15 @@
       <c r="C65" s="1">
         <v>2.75347222222222E-2</v>
       </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="2"/>
+      <c r="D65" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="14">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="66" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="17">
@@ -22943,9 +22955,15 @@
       <c r="C66" s="1">
         <v>2.7986111111111101E-2</v>
       </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="2"/>
+      <c r="D66" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="14">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="67" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="17">
@@ -22958,9 +22976,15 @@
       <c r="C67" s="1">
         <v>2.8437500000000001E-2</v>
       </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="2"/>
+      <c r="D67" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="14">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="68" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="17">

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\disney-clone-youtube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B33524F-AEB5-4A31-87F7-B614F5417B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF750F0-FEB8-489E-8606-584ACD848CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -21589,8 +21589,8 @@
   <dimension ref="A1:G381"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D67" sqref="D67:F67"/>
+      <pane ySplit="4" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -21633,11 +21633,11 @@
       <c r="D3" s="25"/>
       <c r="E3" s="5">
         <f ca="1">(E4+(F4/60))/60</f>
-        <v>0.6825</v>
+        <v>0.72583333333333333</v>
       </c>
       <c r="F3" s="6">
         <f ca="1">(E4+(F4/60))</f>
-        <v>40.950000000000003</v>
+        <v>43.55</v>
       </c>
       <c r="G3" s="20"/>
     </row>
@@ -21656,11 +21656,11 @@
       </c>
       <c r="E4" s="7">
         <f ca="1">SUMIF(Table57815923[CHECK],"Done",E$5:E$72)+(((SUM($F$5:$F$369))-MOD($F$4,60))/60)</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F4" s="7">
         <f ca="1">MOD(SUMIF(Table578159235[CHECK],"Done",(F$5:F$72)),60)</f>
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G4" s="20"/>
     </row>
@@ -22997,9 +22997,15 @@
       <c r="C68" s="1">
         <v>2.8888888888888901E-2</v>
       </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="2"/>
+      <c r="D68" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="14">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="69" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="17">
@@ -23012,9 +23018,15 @@
       <c r="C69" s="1">
         <v>2.9340277777777798E-2</v>
       </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="2"/>
+      <c r="D69" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="14">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="70" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="17">
@@ -23027,9 +23039,15 @@
       <c r="C70" s="1">
         <v>2.9791666666666699E-2</v>
       </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="2"/>
+      <c r="D70" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="14">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="71" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="17">
@@ -23042,9 +23060,15 @@
       <c r="C71" s="1">
         <v>3.0243055555555599E-2</v>
       </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="2"/>
+      <c r="D71" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="14">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="72" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="17">

--- a/track.xlsx
+++ b/track.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\disney-clone-youtube\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Builds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF750F0-FEB8-489E-8606-584ACD848CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE03EE0-FCA2-41D8-B40B-A2E9FEF8EAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="3" r:id="rId1"/>
@@ -19,9 +19,11 @@
     <sheet name="2017" sheetId="7" r:id="rId4"/>
     <sheet name="2018" sheetId="9" r:id="rId5"/>
     <sheet name="2024" sheetId="8" r:id="rId6"/>
+    <sheet name="Today" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Table2014">Table57815[]</definedName>
+    <definedName name="Table20142">'2024'!$G$2:$J$92</definedName>
     <definedName name="Table20156">Table578159[]</definedName>
     <definedName name="Table2016">Table5781592[]</definedName>
     <definedName name="Table2017">Table57815923[]</definedName>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -122,20 +124,52 @@
   <si>
     <t>🔴 Let’s build Disney+ Clone with NEXT.JS 14! (Microsoft Azure, Caching, OpenAI, Shadcn, TailwindCSS)</t>
   </si>
+  <si>
+    <t>2024 Year Resolution As a 33-Year-Old
+Is To Learn React JS</t>
+  </si>
+  <si>
+    <t>React Tutorial for Beginners</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2024.2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,8 +227,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,8 +286,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -270,13 +332,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -338,6 +418,33 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -353,13 +460,449 @@
     <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent4" xfId="2" builtinId="41"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="53">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color rgb="FF002060"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color rgb="FF002060"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color rgb="FF002060"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color rgb="FF002060"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color rgb="FF002060"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color rgb="FF002060"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color rgb="FF002060"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color rgb="FF002060"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color rgb="FF002060"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -968,78 +1511,108 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{F99927F6-9A86-4551-901E-A1F9F7A952FA}" name="Table57815" displayName="Table57815" ref="A4:D163" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{F99927F6-9A86-4551-901E-A1F9F7A952FA}" name="Table57815" displayName="Table57815" ref="A4:D163" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="A4:D163" xr:uid="{D6433E5E-10F4-4533-AA28-A0287449AC3B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D7D35201-009C-416A-A1A1-DBB870305BE1}" name="Date" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{1B5A8BBB-C29E-40A7-B4FC-A79F8485AB7A}" name="FROM" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{A9247F69-44F9-4794-A15C-435B97974587}" name="TO" dataDxfId="31" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{6C00565E-D97D-42F1-BB1C-4AF2276E6622}" name="CHECK" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{D7D35201-009C-416A-A1A1-DBB870305BE1}" name="Date" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{1B5A8BBB-C29E-40A7-B4FC-A79F8485AB7A}" name="FROM" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{A9247F69-44F9-4794-A15C-435B97974587}" name="TO" dataDxfId="48" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{6C00565E-D97D-42F1-BB1C-4AF2276E6622}" name="CHECK" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FCC2F6CE-60DD-4379-9086-A6FEDF28FFC3}" name="Table578159" displayName="Table578159" ref="A4:D369" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FCC2F6CE-60DD-4379-9086-A6FEDF28FFC3}" name="Table578159" displayName="Table578159" ref="A4:D369" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="A4:D369" xr:uid="{D6433E5E-10F4-4533-AA28-A0287449AC3B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6E873468-4B14-4EC9-8094-E931DC7A4F38}" name="Date" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{DDECA2C1-13BD-4970-97A6-53CC368AFF58}" name="FROM" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{5A30831E-C9FF-4BAD-88AA-01CE518426D3}" name="TO" dataDxfId="25" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{D7275E59-04C9-40FA-8C8C-24A1864ED81A}" name="CHECK" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{6E873468-4B14-4EC9-8094-E931DC7A4F38}" name="Date" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{DDECA2C1-13BD-4970-97A6-53CC368AFF58}" name="FROM" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{5A30831E-C9FF-4BAD-88AA-01CE518426D3}" name="TO" dataDxfId="42" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{D7275E59-04C9-40FA-8C8C-24A1864ED81A}" name="CHECK" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{88E32ADD-C525-4B24-94AF-6FF2156B13EB}" name="Table5781592" displayName="Table5781592" ref="A4:D369" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{88E32ADD-C525-4B24-94AF-6FF2156B13EB}" name="Table5781592" displayName="Table5781592" ref="A4:D369" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A4:D369" xr:uid="{D6433E5E-10F4-4533-AA28-A0287449AC3B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4D04A998-DB4B-4826-9195-4A07D47CD1A2}" name="Date" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{2DEDE059-F570-44B3-A231-A3DD97041A88}" name="FROM" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{46937CAC-4FF9-41CB-B2FF-02CD072E8E93}" name="TO" dataDxfId="19" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{21A6BA59-195D-495B-A8CC-26E6359433DF}" name="CHECK" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{4D04A998-DB4B-4826-9195-4A07D47CD1A2}" name="Date" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{2DEDE059-F570-44B3-A231-A3DD97041A88}" name="FROM" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{46937CAC-4FF9-41CB-B2FF-02CD072E8E93}" name="TO" dataDxfId="36" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{21A6BA59-195D-495B-A8CC-26E6359433DF}" name="CHECK" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C3A0306D-0808-4BAC-B6E4-7761CC155B28}" name="Table57815923" displayName="Table57815923" ref="A4:D369" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C3A0306D-0808-4BAC-B6E4-7761CC155B28}" name="Table57815923" displayName="Table57815923" ref="A4:D369" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A4:D369" xr:uid="{D6433E5E-10F4-4533-AA28-A0287449AC3B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6380827D-5F7C-41FA-AD36-E1084EAF55B7}" name="Date" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{02690440-1572-46FC-9EA5-97D4CFEE030E}" name="FROM" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{C195C695-CE36-42BC-807B-7B7F0F718F68}" name="TO" dataDxfId="13" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{EC645BB0-6133-4078-9D46-354F244159BA}" name="CHECK" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{6380827D-5F7C-41FA-AD36-E1084EAF55B7}" name="Date" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{02690440-1572-46FC-9EA5-97D4CFEE030E}" name="FROM" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{C195C695-CE36-42BC-807B-7B7F0F718F68}" name="TO" dataDxfId="30" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{EC645BB0-6133-4078-9D46-354F244159BA}" name="CHECK" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{29EF1D05-AF66-4537-ABFE-A87C4466C630}" name="Table578159235" displayName="Table578159235" ref="A4:D369" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{29EF1D05-AF66-4537-ABFE-A87C4466C630}" name="Table578159235" displayName="Table578159235" ref="A4:D369" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A4:D369" xr:uid="{D6433E5E-10F4-4533-AA28-A0287449AC3B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D0102A83-7F9F-45EF-BBD7-6BC1B16591ED}" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{C2D91CA6-C900-4DA8-B56A-3CD1A009AD34}" name="FROM" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{B1AC9AB6-7FED-47AC-93DE-6B85DE382188}" name="TO" dataDxfId="7" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{CC2F2473-B746-4063-8684-07CB4514726F}" name="CHECK" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{D0102A83-7F9F-45EF-BBD7-6BC1B16591ED}" name="Date" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{C2D91CA6-C900-4DA8-B56A-3CD1A009AD34}" name="FROM" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{B1AC9AB6-7FED-47AC-93DE-6B85DE382188}" name="TO" dataDxfId="24" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{CC2F2473-B746-4063-8684-07CB4514726F}" name="CHECK" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DABF1C12-179A-4E16-ACCE-30698E3C42FE}" name="Table578159234" displayName="Table578159234" ref="A4:D98" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DABF1C12-179A-4E16-ACCE-30698E3C42FE}" name="Table578159234" displayName="Table578159234" ref="A4:D98" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A4:D98" xr:uid="{D6433E5E-10F4-4533-AA28-A0287449AC3B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B85ABAA6-4B18-4A68-80FD-4E0FFE3565BB}" name="Date" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{3031A538-4C24-4940-970E-CF02DF850806}" name="FROM" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{1B517995-6D82-43D9-9C60-7501C235FFE9}" name="TO" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{B66DCD7C-A26C-4394-963D-8E9830456D65}" name="CHECK" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B85ABAA6-4B18-4A68-80FD-4E0FFE3565BB}" name="Date" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{3031A538-4C24-4940-970E-CF02DF850806}" name="FROM" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{1B517995-6D82-43D9-9C60-7501C235FFE9}" name="TO" dataDxfId="18" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{B66DCD7C-A26C-4394-963D-8E9830456D65}" name="CHECK" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CF3579C3-A971-462C-98F3-E84BA000EA53}" name="Table5781592347" displayName="Table5781592347" ref="G4:J92" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="G4:J92" xr:uid="{CF3579C3-A971-462C-98F3-E84BA000EA53}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F2E84DD7-567B-4E25-B1C3-5F8752443D25}" name="Date" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{FFE059C9-5F91-4C17-AFF1-FBFEFACE6CDF}" name="FROM" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{AAA56029-692B-4AA7-B2FF-011D1FC78C16}" name="TO" dataDxfId="12" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{79A1F221-6BD7-4C05-A05A-41A1B91E9FCA}" name="CHECK" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{3C0F0ECE-D2DF-4CF2-B0F1-A30F54243DAF}" name="Table9" displayName="Table9" ref="B3:I90" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="B3:I90" xr:uid="{3C0F0ECE-D2DF-4CF2-B0F1-A30F54243DAF}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{ABF6D96C-453D-4E95-B557-302759D31925}" name="Date" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{B801685B-E147-4424-9012-5C93FFD98D0B}" name="2014" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{B6302DA1-69DA-4D66-BEA2-490693751023}" name="2015" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{C73418A2-935E-4A59-8220-4F635C645565}" name="2016" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{0716CFA6-1456-4A52-BCE9-4AFEE0760FB2}" name="2017" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{14B77ACD-D7F1-490F-96B7-A0D5C690D0CC}" name="2018" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{CB59E406-BF24-440F-ADA8-6A51B76CC731}" name="2024" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{27E43FE4-29DD-49CD-A44E-EBE7EE5B9F00}" name="2024.2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1312,7 +1885,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4:F4"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F5:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -1325,22 +1898,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1349,17 +1922,17 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="5">
         <f ca="1">(E4+(F4/60))/60</f>
-        <v>1.575</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="F3" s="6">
         <f ca="1">(E4+(F4/60))</f>
-        <v>94.5</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1377,7 +1950,7 @@
       </c>
       <c r="E4" s="7">
         <f ca="1">SUMIF(Table57815923[CHECK],"Done",E$5:E$72)+(((SUM($F$5:$F$369))-MOD($F$4,60))/60)</f>
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="F4" s="7">
         <f ca="1">MOD(SUMIF(Table578159235[CHECK],"Done",(F$5:F$72)),60)</f>
@@ -2046,12 +2619,8 @@
         <v>3.3333333333331501E-2</v>
       </c>
       <c r="D36" s="8"/>
-      <c r="E36" s="14">
-        <v>1</v>
-      </c>
-      <c r="F36" s="2">
-        <v>30</v>
-      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="13">
@@ -2065,12 +2634,8 @@
         <v>3.4374999999998102E-2</v>
       </c>
       <c r="D37" s="8"/>
-      <c r="E37" s="14">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2">
-        <v>30</v>
-      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13">
@@ -2084,12 +2649,8 @@
         <v>3.5416666666664702E-2</v>
       </c>
       <c r="D38" s="8"/>
-      <c r="E38" s="14">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2">
-        <v>30</v>
-      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13">
@@ -2103,12 +2664,8 @@
         <v>3.64583333333314E-2</v>
       </c>
       <c r="D39" s="8"/>
-      <c r="E39" s="14">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2">
-        <v>30</v>
-      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13">
@@ -2122,12 +2679,8 @@
         <v>3.7499999999998E-2</v>
       </c>
       <c r="D40" s="8"/>
-      <c r="E40" s="14">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2">
-        <v>30</v>
-      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="13">
@@ -2141,12 +2694,8 @@
         <v>3.8541666666664601E-2</v>
       </c>
       <c r="D41" s="8"/>
-      <c r="E41" s="14">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2">
-        <v>30</v>
-      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="13">
@@ -2160,12 +2709,8 @@
         <v>3.9583333333331201E-2</v>
       </c>
       <c r="D42" s="8"/>
-      <c r="E42" s="14">
-        <v>1</v>
-      </c>
-      <c r="F42" s="2">
-        <v>30</v>
-      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="13">
@@ -2179,12 +2724,8 @@
         <v>4.0624999999997802E-2</v>
       </c>
       <c r="D43" s="8"/>
-      <c r="E43" s="14">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2">
-        <v>30</v>
-      </c>
+      <c r="E43" s="14"/>
+      <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="13">
@@ -2198,12 +2739,8 @@
         <v>4.1666666666664402E-2</v>
       </c>
       <c r="D44" s="8"/>
-      <c r="E44" s="14">
-        <v>1</v>
-      </c>
-      <c r="F44" s="2">
-        <v>30</v>
-      </c>
+      <c r="E44" s="14"/>
+      <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="13">
@@ -2217,12 +2754,8 @@
         <v>4.2708333333331003E-2</v>
       </c>
       <c r="D45" s="8"/>
-      <c r="E45" s="14">
-        <v>1</v>
-      </c>
-      <c r="F45" s="2">
-        <v>30</v>
-      </c>
+      <c r="E45" s="14"/>
+      <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="13">
@@ -2236,12 +2769,8 @@
         <v>4.3749999999997603E-2</v>
       </c>
       <c r="D46" s="8"/>
-      <c r="E46" s="14">
-        <v>1</v>
-      </c>
-      <c r="F46" s="2">
-        <v>30</v>
-      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="13">
@@ -2255,12 +2784,8 @@
         <v>4.4791666666664197E-2</v>
       </c>
       <c r="D47" s="8"/>
-      <c r="E47" s="14">
-        <v>1</v>
-      </c>
-      <c r="F47" s="2">
-        <v>30</v>
-      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="13">
@@ -2274,12 +2799,8 @@
         <v>4.5833333333330797E-2</v>
       </c>
       <c r="D48" s="8"/>
-      <c r="E48" s="14">
-        <v>1</v>
-      </c>
-      <c r="F48" s="2">
-        <v>30</v>
-      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="13">
@@ -2293,12 +2814,8 @@
         <v>4.6874999999997398E-2</v>
       </c>
       <c r="D49" s="8"/>
-      <c r="E49" s="14">
-        <v>1</v>
-      </c>
-      <c r="F49" s="2">
-        <v>30</v>
-      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="13">
@@ -2312,12 +2829,8 @@
         <v>4.7916666666663998E-2</v>
       </c>
       <c r="D50" s="8"/>
-      <c r="E50" s="14">
-        <v>1</v>
-      </c>
-      <c r="F50" s="2">
-        <v>30</v>
-      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="13">
@@ -2331,12 +2844,8 @@
         <v>4.8958333333330599E-2</v>
       </c>
       <c r="D51" s="8"/>
-      <c r="E51" s="14">
-        <v>1</v>
-      </c>
-      <c r="F51" s="2">
-        <v>30</v>
-      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="13">
@@ -2350,12 +2859,8 @@
         <v>4.9999999999997297E-2</v>
       </c>
       <c r="D52" s="8"/>
-      <c r="E52" s="14">
-        <v>1</v>
-      </c>
-      <c r="F52" s="2">
-        <v>30</v>
-      </c>
+      <c r="E52" s="14"/>
+      <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="13">
@@ -2369,12 +2874,8 @@
         <v>5.1041666666663897E-2</v>
       </c>
       <c r="D53" s="8"/>
-      <c r="E53" s="14">
-        <v>1</v>
-      </c>
-      <c r="F53" s="2">
-        <v>30</v>
-      </c>
+      <c r="E53" s="14"/>
+      <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="13">
@@ -2388,12 +2889,8 @@
         <v>5.2083333333330498E-2</v>
       </c>
       <c r="D54" s="8"/>
-      <c r="E54" s="14">
-        <v>1</v>
-      </c>
-      <c r="F54" s="2">
-        <v>30</v>
-      </c>
+      <c r="E54" s="14"/>
+      <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="13">
@@ -2407,12 +2904,8 @@
         <v>5.3124999999997098E-2</v>
       </c>
       <c r="D55" s="8"/>
-      <c r="E55" s="14">
-        <v>1</v>
-      </c>
-      <c r="F55" s="2">
-        <v>30</v>
-      </c>
+      <c r="E55" s="14"/>
+      <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="13">
@@ -2426,12 +2919,8 @@
         <v>5.4166666666663699E-2</v>
       </c>
       <c r="D56" s="8"/>
-      <c r="E56" s="14">
-        <v>1</v>
-      </c>
-      <c r="F56" s="2">
-        <v>30</v>
-      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="13">
@@ -2445,12 +2934,8 @@
         <v>5.5208333333330299E-2</v>
       </c>
       <c r="D57" s="8"/>
-      <c r="E57" s="14">
-        <v>1</v>
-      </c>
-      <c r="F57" s="2">
-        <v>30</v>
-      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="13">
@@ -2464,12 +2949,8 @@
         <v>5.62499999999969E-2</v>
       </c>
       <c r="D58" s="8"/>
-      <c r="E58" s="14">
-        <v>1</v>
-      </c>
-      <c r="F58" s="2">
-        <v>30</v>
-      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="13">
@@ -2483,12 +2964,8 @@
         <v>5.72916666666635E-2</v>
       </c>
       <c r="D59" s="8"/>
-      <c r="E59" s="14">
-        <v>1</v>
-      </c>
-      <c r="F59" s="2">
-        <v>30</v>
-      </c>
+      <c r="E59" s="14"/>
+      <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="13">
@@ -2502,12 +2979,8 @@
         <v>5.8333333333330101E-2</v>
       </c>
       <c r="D60" s="8"/>
-      <c r="E60" s="14">
-        <v>1</v>
-      </c>
-      <c r="F60" s="2">
-        <v>30</v>
-      </c>
+      <c r="E60" s="14"/>
+      <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="13">
@@ -2521,12 +2994,8 @@
         <v>5.9374999999996701E-2</v>
       </c>
       <c r="D61" s="8"/>
-      <c r="E61" s="14">
-        <v>1</v>
-      </c>
-      <c r="F61" s="2">
-        <v>30</v>
-      </c>
+      <c r="E61" s="14"/>
+      <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="13">
@@ -2540,12 +3009,8 @@
         <v>6.0416666666663302E-2</v>
       </c>
       <c r="D62" s="8"/>
-      <c r="E62" s="14">
-        <v>1</v>
-      </c>
-      <c r="F62" s="2">
-        <v>30</v>
-      </c>
+      <c r="E62" s="14"/>
+      <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="13">
@@ -2559,12 +3024,8 @@
         <v>6.1458333333329902E-2</v>
       </c>
       <c r="D63" s="8"/>
-      <c r="E63" s="14">
-        <v>1</v>
-      </c>
-      <c r="F63" s="2">
-        <v>30</v>
-      </c>
+      <c r="E63" s="14"/>
+      <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="13">
@@ -2578,12 +3039,8 @@
         <v>6.2499999999996503E-2</v>
       </c>
       <c r="D64" s="8"/>
-      <c r="E64" s="14">
-        <v>1</v>
-      </c>
-      <c r="F64" s="2">
-        <v>30</v>
-      </c>
+      <c r="E64" s="14"/>
+      <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="13">
@@ -2597,12 +3054,8 @@
         <v>6.3541666666663096E-2</v>
       </c>
       <c r="D65" s="8"/>
-      <c r="E65" s="14">
-        <v>1</v>
-      </c>
-      <c r="F65" s="2">
-        <v>30</v>
-      </c>
+      <c r="E65" s="14"/>
+      <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="13">
@@ -2616,12 +3069,8 @@
         <v>6.4583333333329801E-2</v>
       </c>
       <c r="D66" s="8"/>
-      <c r="E66" s="14">
-        <v>1</v>
-      </c>
-      <c r="F66" s="2">
-        <v>30</v>
-      </c>
+      <c r="E66" s="14"/>
+      <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="13">
@@ -2635,12 +3084,8 @@
         <v>6.5624999999996395E-2</v>
       </c>
       <c r="D67" s="8"/>
-      <c r="E67" s="14">
-        <v>1</v>
-      </c>
-      <c r="F67" s="2">
-        <v>30</v>
-      </c>
+      <c r="E67" s="14"/>
+      <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="13">
@@ -2654,12 +3099,8 @@
         <v>6.6666666666663002E-2</v>
       </c>
       <c r="D68" s="8"/>
-      <c r="E68" s="14">
-        <v>1</v>
-      </c>
-      <c r="F68" s="2">
-        <v>30</v>
-      </c>
+      <c r="E68" s="14"/>
+      <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="13">
@@ -2673,12 +3114,8 @@
         <v>6.7708333333329596E-2</v>
       </c>
       <c r="D69" s="8"/>
-      <c r="E69" s="14">
-        <v>1</v>
-      </c>
-      <c r="F69" s="2">
-        <v>30</v>
-      </c>
+      <c r="E69" s="14"/>
+      <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="13">
@@ -2692,12 +3129,8 @@
         <v>6.8749999999996203E-2</v>
       </c>
       <c r="D70" s="8"/>
-      <c r="E70" s="14">
-        <v>1</v>
-      </c>
-      <c r="F70" s="2">
-        <v>30</v>
-      </c>
+      <c r="E70" s="14"/>
+      <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="13">
@@ -2711,12 +3144,8 @@
         <v>6.9791666666662797E-2</v>
       </c>
       <c r="D71" s="8"/>
-      <c r="E71" s="14">
-        <v>1</v>
-      </c>
-      <c r="F71" s="2">
-        <v>30</v>
-      </c>
+      <c r="E71" s="14"/>
+      <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="13">
@@ -2730,12 +3159,8 @@
         <v>7.0833333333329404E-2</v>
       </c>
       <c r="D72" s="8"/>
-      <c r="E72" s="14">
-        <v>1</v>
-      </c>
-      <c r="F72" s="2">
-        <v>30</v>
-      </c>
+      <c r="E72" s="14"/>
+      <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="13">
@@ -2749,12 +3174,8 @@
         <v>7.1874999999995998E-2</v>
       </c>
       <c r="D73" s="8"/>
-      <c r="E73" s="14">
-        <v>1</v>
-      </c>
-      <c r="F73" s="2">
-        <v>30</v>
-      </c>
+      <c r="E73" s="14"/>
+      <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="13">
@@ -2768,12 +3189,8 @@
         <v>7.2916666666662605E-2</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="14">
-        <v>1</v>
-      </c>
-      <c r="F74" s="2">
-        <v>30</v>
-      </c>
+      <c r="E74" s="14"/>
+      <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="13">
@@ -2787,12 +3204,8 @@
         <v>7.3958333333329199E-2</v>
       </c>
       <c r="D75" s="8"/>
-      <c r="E75" s="14">
-        <v>1</v>
-      </c>
-      <c r="F75" s="2">
-        <v>30</v>
-      </c>
+      <c r="E75" s="14"/>
+      <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="13">
@@ -2806,12 +3219,8 @@
         <v>7.4999999999995806E-2</v>
       </c>
       <c r="D76" s="8"/>
-      <c r="E76" s="14">
-        <v>1</v>
-      </c>
-      <c r="F76" s="2">
-        <v>30</v>
-      </c>
+      <c r="E76" s="14"/>
+      <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="13">
@@ -2825,12 +3234,8 @@
         <v>7.60416666666624E-2</v>
       </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="14">
-        <v>1</v>
-      </c>
-      <c r="F77" s="2">
-        <v>30</v>
-      </c>
+      <c r="E77" s="14"/>
+      <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="13">
@@ -2844,12 +3249,8 @@
         <v>7.7083333333328993E-2</v>
       </c>
       <c r="D78" s="8"/>
-      <c r="E78" s="14">
-        <v>1</v>
-      </c>
-      <c r="F78" s="2">
-        <v>30</v>
-      </c>
+      <c r="E78" s="14"/>
+      <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="13">
@@ -2863,12 +3264,8 @@
         <v>7.8124999999995698E-2</v>
       </c>
       <c r="D79" s="8"/>
-      <c r="E79" s="14">
-        <v>1</v>
-      </c>
-      <c r="F79" s="2">
-        <v>30</v>
-      </c>
+      <c r="E79" s="14"/>
+      <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="13">
@@ -2882,12 +3279,8 @@
         <v>7.9166666666662305E-2</v>
       </c>
       <c r="D80" s="8"/>
-      <c r="E80" s="14">
-        <v>1</v>
-      </c>
-      <c r="F80" s="2">
-        <v>30</v>
-      </c>
+      <c r="E80" s="14"/>
+      <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="13">
@@ -2901,12 +3294,8 @@
         <v>8.0208333333328899E-2</v>
       </c>
       <c r="D81" s="8"/>
-      <c r="E81" s="14">
-        <v>1</v>
-      </c>
-      <c r="F81" s="2">
-        <v>30</v>
-      </c>
+      <c r="E81" s="14"/>
+      <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="13">
@@ -2920,12 +3309,8 @@
         <v>8.1249999999995506E-2</v>
       </c>
       <c r="D82" s="8"/>
-      <c r="E82" s="14">
-        <v>1</v>
-      </c>
-      <c r="F82" s="2">
-        <v>30</v>
-      </c>
+      <c r="E82" s="14"/>
+      <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="13">
@@ -2939,12 +3324,8 @@
         <v>8.22916666666621E-2</v>
       </c>
       <c r="D83" s="8"/>
-      <c r="E83" s="14">
-        <v>1</v>
-      </c>
-      <c r="F83" s="2">
-        <v>30</v>
-      </c>
+      <c r="E83" s="14"/>
+      <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="13">
@@ -2958,12 +3339,8 @@
         <v>8.3333333333328694E-2</v>
       </c>
       <c r="D84" s="8"/>
-      <c r="E84" s="14">
-        <v>1</v>
-      </c>
-      <c r="F84" s="2">
-        <v>30</v>
-      </c>
+      <c r="E84" s="14"/>
+      <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="13">
@@ -2977,12 +3354,8 @@
         <v>8.4374999999995301E-2</v>
       </c>
       <c r="D85" s="8"/>
-      <c r="E85" s="14">
-        <v>1</v>
-      </c>
-      <c r="F85" s="2">
-        <v>30</v>
-      </c>
+      <c r="E85" s="14"/>
+      <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="13">
@@ -2996,12 +3369,8 @@
         <v>8.5416666666661895E-2</v>
       </c>
       <c r="D86" s="8"/>
-      <c r="E86" s="14">
-        <v>1</v>
-      </c>
-      <c r="F86" s="2">
-        <v>30</v>
-      </c>
+      <c r="E86" s="14"/>
+      <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="13">
@@ -3015,12 +3384,8 @@
         <v>8.6458333333328502E-2</v>
       </c>
       <c r="D87" s="8"/>
-      <c r="E87" s="14">
-        <v>1</v>
-      </c>
-      <c r="F87" s="2">
-        <v>30</v>
-      </c>
+      <c r="E87" s="14"/>
+      <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="13">
@@ -3034,12 +3399,8 @@
         <v>8.7499999999995096E-2</v>
       </c>
       <c r="D88" s="8"/>
-      <c r="E88" s="14">
-        <v>1</v>
-      </c>
-      <c r="F88" s="2">
-        <v>30</v>
-      </c>
+      <c r="E88" s="14"/>
+      <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="13">
@@ -3053,12 +3414,8 @@
         <v>8.8541666666661703E-2</v>
       </c>
       <c r="D89" s="8"/>
-      <c r="E89" s="14">
-        <v>1</v>
-      </c>
-      <c r="F89" s="2">
-        <v>30</v>
-      </c>
+      <c r="E89" s="14"/>
+      <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="13">
@@ -3072,12 +3429,8 @@
         <v>8.9583333333328297E-2</v>
       </c>
       <c r="D90" s="8"/>
-      <c r="E90" s="14">
-        <v>1</v>
-      </c>
-      <c r="F90" s="2">
-        <v>30</v>
-      </c>
+      <c r="E90" s="14"/>
+      <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="13">
@@ -3091,12 +3444,8 @@
         <v>9.0624999999994904E-2</v>
       </c>
       <c r="D91" s="8"/>
-      <c r="E91" s="14">
-        <v>1</v>
-      </c>
-      <c r="F91" s="2">
-        <v>30</v>
-      </c>
+      <c r="E91" s="14"/>
+      <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="13">
@@ -3110,12 +3459,8 @@
         <v>9.1666666666661498E-2</v>
       </c>
       <c r="D92" s="8"/>
-      <c r="E92" s="14">
-        <v>1</v>
-      </c>
-      <c r="F92" s="2">
-        <v>30</v>
-      </c>
+      <c r="E92" s="14"/>
+      <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="13">
@@ -3129,12 +3474,8 @@
         <v>9.2708333333328202E-2</v>
       </c>
       <c r="D93" s="8"/>
-      <c r="E93" s="14">
-        <v>1</v>
-      </c>
-      <c r="F93" s="2">
-        <v>30</v>
-      </c>
+      <c r="E93" s="14"/>
+      <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="13">
@@ -3148,12 +3489,8 @@
         <v>9.3749999999994796E-2</v>
       </c>
       <c r="D94" s="8"/>
-      <c r="E94" s="14">
-        <v>1</v>
-      </c>
-      <c r="F94" s="2">
-        <v>30</v>
-      </c>
+      <c r="E94" s="14"/>
+      <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="13">
@@ -3167,12 +3504,8 @@
         <v>9.4791666666661403E-2</v>
       </c>
       <c r="D95" s="8"/>
-      <c r="E95" s="14">
-        <v>1</v>
-      </c>
-      <c r="F95" s="2">
-        <v>30</v>
-      </c>
+      <c r="E95" s="14"/>
+      <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="13">
@@ -3186,12 +3519,8 @@
         <v>9.5833333333327997E-2</v>
       </c>
       <c r="D96" s="8"/>
-      <c r="E96" s="14">
-        <v>1</v>
-      </c>
-      <c r="F96" s="2">
-        <v>30</v>
-      </c>
+      <c r="E96" s="14"/>
+      <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="13">
@@ -3205,12 +3534,8 @@
         <v>9.6874999999994604E-2</v>
       </c>
       <c r="D97" s="8"/>
-      <c r="E97" s="14">
-        <v>1</v>
-      </c>
-      <c r="F97" s="2">
-        <v>30</v>
-      </c>
+      <c r="E97" s="14"/>
+      <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="13">
@@ -3224,12 +3549,8 @@
         <v>9.7916666666661198E-2</v>
       </c>
       <c r="D98" s="8"/>
-      <c r="E98" s="14">
-        <v>1</v>
-      </c>
-      <c r="F98" s="2">
-        <v>30</v>
-      </c>
+      <c r="E98" s="14"/>
+      <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="13">
@@ -3243,12 +3564,8 @@
         <v>9.8958333333327805E-2</v>
       </c>
       <c r="D99" s="8"/>
-      <c r="E99" s="14">
-        <v>1</v>
-      </c>
-      <c r="F99" s="2">
-        <v>30</v>
-      </c>
+      <c r="E99" s="14"/>
+      <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="13">
@@ -3262,12 +3579,8 @@
         <v>9.9999999999994399E-2</v>
       </c>
       <c r="D100" s="8"/>
-      <c r="E100" s="14">
-        <v>1</v>
-      </c>
-      <c r="F100" s="2">
-        <v>30</v>
-      </c>
+      <c r="E100" s="14"/>
+      <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="13">
@@ -3281,12 +3594,8 @@
         <v>0.10104166666666101</v>
       </c>
       <c r="D101" s="8"/>
-      <c r="E101" s="14">
-        <v>1</v>
-      </c>
-      <c r="F101" s="2">
-        <v>30</v>
-      </c>
+      <c r="E101" s="14"/>
+      <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="13">
@@ -3300,12 +3609,8 @@
         <v>0.102083333333328</v>
       </c>
       <c r="D102" s="8"/>
-      <c r="E102" s="14">
-        <v>1</v>
-      </c>
-      <c r="F102" s="2">
-        <v>30</v>
-      </c>
+      <c r="E102" s="14"/>
+      <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="13">
@@ -3319,12 +3624,8 @@
         <v>0.103124999999995</v>
       </c>
       <c r="D103" s="8"/>
-      <c r="E103" s="14">
-        <v>1</v>
-      </c>
-      <c r="F103" s="2">
-        <v>30</v>
-      </c>
+      <c r="E103" s="14"/>
+      <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="13">
@@ -3338,12 +3639,8 @@
         <v>0.104166666666661</v>
       </c>
       <c r="D104" s="8"/>
-      <c r="E104" s="14">
-        <v>1</v>
-      </c>
-      <c r="F104" s="2">
-        <v>30</v>
-      </c>
+      <c r="E104" s="14"/>
+      <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="13">
@@ -3357,12 +3654,8 @@
         <v>0.10520833333332801</v>
       </c>
       <c r="D105" s="8"/>
-      <c r="E105" s="14">
-        <v>1</v>
-      </c>
-      <c r="F105" s="2">
-        <v>30</v>
-      </c>
+      <c r="E105" s="14"/>
+      <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="13">
@@ -3376,12 +3669,8 @@
         <v>0.106249999999994</v>
       </c>
       <c r="D106" s="8"/>
-      <c r="E106" s="14">
-        <v>1</v>
-      </c>
-      <c r="F106" s="2">
-        <v>30</v>
-      </c>
+      <c r="E106" s="14"/>
+      <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="13">
@@ -3395,12 +3684,8 @@
         <v>0.107291666666661</v>
       </c>
       <c r="D107" s="8"/>
-      <c r="E107" s="14">
-        <v>1</v>
-      </c>
-      <c r="F107" s="2">
-        <v>30</v>
-      </c>
+      <c r="E107" s="14"/>
+      <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="13">
@@ -3414,12 +3699,8 @@
         <v>0.10833333333332799</v>
       </c>
       <c r="D108" s="8"/>
-      <c r="E108" s="14">
-        <v>1</v>
-      </c>
-      <c r="F108" s="2">
-        <v>30</v>
-      </c>
+      <c r="E108" s="14"/>
+      <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="13">
@@ -3433,12 +3714,8 @@
         <v>0.109374999999994</v>
       </c>
       <c r="D109" s="8"/>
-      <c r="E109" s="14">
-        <v>1</v>
-      </c>
-      <c r="F109" s="2">
-        <v>30</v>
-      </c>
+      <c r="E109" s="14"/>
+      <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="13">
@@ -3452,12 +3729,8 @@
         <v>0.110416666666661</v>
       </c>
       <c r="D110" s="8"/>
-      <c r="E110" s="14">
-        <v>1</v>
-      </c>
-      <c r="F110" s="2">
-        <v>30</v>
-      </c>
+      <c r="E110" s="14"/>
+      <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="13">
@@ -3471,12 +3744,8 @@
         <v>0.111458333333327</v>
       </c>
       <c r="D111" s="8"/>
-      <c r="E111" s="14">
-        <v>1</v>
-      </c>
-      <c r="F111" s="2">
-        <v>30</v>
-      </c>
+      <c r="E111" s="14"/>
+      <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="13">
@@ -3490,12 +3759,8 @@
         <v>0.11249999999999399</v>
       </c>
       <c r="D112" s="8"/>
-      <c r="E112" s="14">
-        <v>1</v>
-      </c>
-      <c r="F112" s="2">
-        <v>30</v>
-      </c>
+      <c r="E112" s="14"/>
+      <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="13">
@@ -3509,12 +3774,8 @@
         <v>0.113541666666661</v>
       </c>
       <c r="D113" s="8"/>
-      <c r="E113" s="14">
-        <v>1</v>
-      </c>
-      <c r="F113" s="2">
-        <v>30</v>
-      </c>
+      <c r="E113" s="14"/>
+      <c r="F113" s="2"/>
     </row>
     <row r="114" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="13">
@@ -3528,12 +3789,8 @@
         <v>0.114583333333327</v>
       </c>
       <c r="D114" s="8"/>
-      <c r="E114" s="14">
-        <v>1</v>
-      </c>
-      <c r="F114" s="2">
-        <v>30</v>
-      </c>
+      <c r="E114" s="14"/>
+      <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="13">
@@ -3547,12 +3804,8 @@
         <v>0.115624999999994</v>
       </c>
       <c r="D115" s="8"/>
-      <c r="E115" s="14">
-        <v>1</v>
-      </c>
-      <c r="F115" s="2">
-        <v>30</v>
-      </c>
+      <c r="E115" s="14"/>
+      <c r="F115" s="2"/>
     </row>
     <row r="116" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="13">
@@ -3566,12 +3819,8 @@
         <v>0.11666666666665999</v>
       </c>
       <c r="D116" s="8"/>
-      <c r="E116" s="14">
-        <v>1</v>
-      </c>
-      <c r="F116" s="2">
-        <v>30</v>
-      </c>
+      <c r="E116" s="14"/>
+      <c r="F116" s="2"/>
     </row>
     <row r="117" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="13">
@@ -3585,12 +3834,8 @@
         <v>0.117708333333327</v>
       </c>
       <c r="D117" s="8"/>
-      <c r="E117" s="14">
-        <v>1</v>
-      </c>
-      <c r="F117" s="2">
-        <v>30</v>
-      </c>
+      <c r="E117" s="14"/>
+      <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="13">
@@ -3604,12 +3849,8 @@
         <v>0.118749999999994</v>
       </c>
       <c r="D118" s="8"/>
-      <c r="E118" s="14">
-        <v>1</v>
-      </c>
-      <c r="F118" s="2">
-        <v>30</v>
-      </c>
+      <c r="E118" s="14"/>
+      <c r="F118" s="2"/>
     </row>
     <row r="119" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="13">
@@ -3623,12 +3864,8 @@
         <v>0.11979166666666</v>
       </c>
       <c r="D119" s="8"/>
-      <c r="E119" s="14">
-        <v>1</v>
-      </c>
-      <c r="F119" s="2">
-        <v>30</v>
-      </c>
+      <c r="E119" s="14"/>
+      <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="13">
@@ -3642,12 +3879,8 @@
         <v>0.12083333333332701</v>
       </c>
       <c r="D120" s="8"/>
-      <c r="E120" s="14">
-        <v>1</v>
-      </c>
-      <c r="F120" s="2">
-        <v>30</v>
-      </c>
+      <c r="E120" s="14"/>
+      <c r="F120" s="2"/>
     </row>
     <row r="121" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="13">
@@ -3661,12 +3894,8 @@
         <v>0.121874999999993</v>
       </c>
       <c r="D121" s="8"/>
-      <c r="E121" s="14">
-        <v>1</v>
-      </c>
-      <c r="F121" s="2">
-        <v>30</v>
-      </c>
+      <c r="E121" s="14"/>
+      <c r="F121" s="2"/>
     </row>
     <row r="122" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="13">
@@ -3680,12 +3909,8 @@
         <v>0.12291666666666</v>
       </c>
       <c r="D122" s="8"/>
-      <c r="E122" s="14">
-        <v>1</v>
-      </c>
-      <c r="F122" s="2">
-        <v>30</v>
-      </c>
+      <c r="E122" s="14"/>
+      <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="13">
@@ -3699,12 +3924,8 @@
         <v>0.12395833333332699</v>
       </c>
       <c r="D123" s="8"/>
-      <c r="E123" s="14">
-        <v>1</v>
-      </c>
-      <c r="F123" s="2">
-        <v>30</v>
-      </c>
+      <c r="E123" s="14"/>
+      <c r="F123" s="2"/>
     </row>
     <row r="124" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="13">
@@ -3718,12 +3939,8 @@
         <v>0.12499999999999301</v>
       </c>
       <c r="D124" s="8"/>
-      <c r="E124" s="14">
-        <v>1</v>
-      </c>
-      <c r="F124" s="2">
-        <v>30</v>
-      </c>
+      <c r="E124" s="14"/>
+      <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="13">
@@ -3737,12 +3954,8 @@
         <v>0.12604166666666</v>
       </c>
       <c r="D125" s="8"/>
-      <c r="E125" s="14">
-        <v>1</v>
-      </c>
-      <c r="F125" s="2">
-        <v>30</v>
-      </c>
+      <c r="E125" s="14"/>
+      <c r="F125" s="2"/>
     </row>
     <row r="126" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="13">
@@ -3756,12 +3969,8 @@
         <v>0.127083333333327</v>
       </c>
       <c r="D126" s="8"/>
-      <c r="E126" s="14">
-        <v>1</v>
-      </c>
-      <c r="F126" s="2">
-        <v>30</v>
-      </c>
+      <c r="E126" s="14"/>
+      <c r="F126" s="2"/>
     </row>
     <row r="127" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="13">
@@ -3775,12 +3984,8 @@
         <v>0.12812499999999299</v>
       </c>
       <c r="D127" s="8"/>
-      <c r="E127" s="14">
-        <v>1</v>
-      </c>
-      <c r="F127" s="2">
-        <v>30</v>
-      </c>
+      <c r="E127" s="14"/>
+      <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="13">
@@ -3794,12 +3999,8 @@
         <v>0.12916666666665999</v>
       </c>
       <c r="D128" s="8"/>
-      <c r="E128" s="14">
-        <v>1</v>
-      </c>
-      <c r="F128" s="2">
-        <v>30</v>
-      </c>
+      <c r="E128" s="14"/>
+      <c r="F128" s="2"/>
     </row>
     <row r="129" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="13">
@@ -3813,12 +4014,8 @@
         <v>0.13020833333332599</v>
       </c>
       <c r="D129" s="8"/>
-      <c r="E129" s="14">
-        <v>1</v>
-      </c>
-      <c r="F129" s="2">
-        <v>30</v>
-      </c>
+      <c r="E129" s="14"/>
+      <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="13">
@@ -3832,12 +4029,8 @@
         <v>0.13124999999999301</v>
       </c>
       <c r="D130" s="8"/>
-      <c r="E130" s="14">
-        <v>1</v>
-      </c>
-      <c r="F130" s="2">
-        <v>30</v>
-      </c>
+      <c r="E130" s="14"/>
+      <c r="F130" s="2"/>
     </row>
     <row r="131" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="13">
@@ -3851,12 +4044,8 @@
         <v>0.13229166666666001</v>
       </c>
       <c r="D131" s="8"/>
-      <c r="E131" s="14">
-        <v>1</v>
-      </c>
-      <c r="F131" s="2">
-        <v>30</v>
-      </c>
+      <c r="E131" s="14"/>
+      <c r="F131" s="2"/>
     </row>
     <row r="132" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="13">
@@ -3870,12 +4059,8 @@
         <v>0.133333333333326</v>
       </c>
       <c r="D132" s="8"/>
-      <c r="E132" s="14">
-        <v>1</v>
-      </c>
-      <c r="F132" s="2">
-        <v>30</v>
-      </c>
+      <c r="E132" s="14"/>
+      <c r="F132" s="2"/>
     </row>
     <row r="133" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="13">
@@ -3889,12 +4074,8 @@
         <v>0.134374999999993</v>
       </c>
       <c r="D133" s="8"/>
-      <c r="E133" s="14">
-        <v>1</v>
-      </c>
-      <c r="F133" s="2">
-        <v>30</v>
-      </c>
+      <c r="E133" s="14"/>
+      <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="13">
@@ -3908,12 +4089,8 @@
         <v>0.135416666666659</v>
       </c>
       <c r="D134" s="8"/>
-      <c r="E134" s="14">
-        <v>1</v>
-      </c>
-      <c r="F134" s="2">
-        <v>30</v>
-      </c>
+      <c r="E134" s="14"/>
+      <c r="F134" s="2"/>
     </row>
     <row r="135" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="13">
@@ -3927,12 +4104,8 @@
         <v>0.13645833333332599</v>
       </c>
       <c r="D135" s="8"/>
-      <c r="E135" s="14">
-        <v>1</v>
-      </c>
-      <c r="F135" s="2">
-        <v>30</v>
-      </c>
+      <c r="E135" s="14"/>
+      <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="13">
@@ -3946,12 +4119,8 @@
         <v>0.13749999999999299</v>
       </c>
       <c r="D136" s="8"/>
-      <c r="E136" s="14">
-        <v>1</v>
-      </c>
-      <c r="F136" s="2">
-        <v>30</v>
-      </c>
+      <c r="E136" s="14"/>
+      <c r="F136" s="2"/>
     </row>
     <row r="137" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="13">
@@ -3965,12 +4134,8 @@
         <v>0.13854166666665901</v>
       </c>
       <c r="D137" s="8"/>
-      <c r="E137" s="14">
-        <v>1</v>
-      </c>
-      <c r="F137" s="2">
-        <v>30</v>
-      </c>
+      <c r="E137" s="14"/>
+      <c r="F137" s="2"/>
     </row>
     <row r="138" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="13">
@@ -3984,12 +4149,8 @@
         <v>0.13958333333332601</v>
       </c>
       <c r="D138" s="8"/>
-      <c r="E138" s="14">
-        <v>1</v>
-      </c>
-      <c r="F138" s="2">
-        <v>30</v>
-      </c>
+      <c r="E138" s="14"/>
+      <c r="F138" s="2"/>
     </row>
     <row r="139" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="13">
@@ -4003,12 +4164,8 @@
         <v>0.14062499999999201</v>
       </c>
       <c r="D139" s="8"/>
-      <c r="E139" s="14">
-        <v>1</v>
-      </c>
-      <c r="F139" s="2">
-        <v>30</v>
-      </c>
+      <c r="E139" s="14"/>
+      <c r="F139" s="2"/>
     </row>
     <row r="140" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="13">
@@ -4022,12 +4179,8 @@
         <v>0.141666666666659</v>
       </c>
       <c r="D140" s="8"/>
-      <c r="E140" s="14">
-        <v>1</v>
-      </c>
-      <c r="F140" s="2">
-        <v>30</v>
-      </c>
+      <c r="E140" s="14"/>
+      <c r="F140" s="2"/>
     </row>
     <row r="141" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="13">
@@ -4041,12 +4194,8 @@
         <v>0.142708333333326</v>
       </c>
       <c r="D141" s="8"/>
-      <c r="E141" s="14">
-        <v>1</v>
-      </c>
-      <c r="F141" s="2">
-        <v>30</v>
-      </c>
+      <c r="E141" s="14"/>
+      <c r="F141" s="2"/>
     </row>
     <row r="142" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="13">
@@ -4060,12 +4209,8 @@
         <v>0.143749999999992</v>
       </c>
       <c r="D142" s="8"/>
-      <c r="E142" s="14">
-        <v>1</v>
-      </c>
-      <c r="F142" s="2">
-        <v>30</v>
-      </c>
+      <c r="E142" s="14"/>
+      <c r="F142" s="2"/>
     </row>
     <row r="143" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="13">
@@ -4079,12 +4224,8 @@
         <v>0.14479166666665899</v>
       </c>
       <c r="D143" s="8"/>
-      <c r="E143" s="14">
-        <v>1</v>
-      </c>
-      <c r="F143" s="2">
-        <v>30</v>
-      </c>
+      <c r="E143" s="14"/>
+      <c r="F143" s="2"/>
     </row>
     <row r="144" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="13">
@@ -4098,12 +4239,8 @@
         <v>0.14583333333332499</v>
       </c>
       <c r="D144" s="8"/>
-      <c r="E144" s="14">
-        <v>1</v>
-      </c>
-      <c r="F144" s="2">
-        <v>30</v>
-      </c>
+      <c r="E144" s="14"/>
+      <c r="F144" s="2"/>
     </row>
     <row r="145" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="13">
@@ -4117,12 +4254,8 @@
         <v>0.14687499999999201</v>
       </c>
       <c r="D145" s="8"/>
-      <c r="E145" s="14">
-        <v>1</v>
-      </c>
-      <c r="F145" s="2">
-        <v>30</v>
-      </c>
+      <c r="E145" s="14"/>
+      <c r="F145" s="2"/>
     </row>
     <row r="146" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="13">
@@ -4136,12 +4269,8 @@
         <v>0.14791666666665901</v>
       </c>
       <c r="D146" s="8"/>
-      <c r="E146" s="14">
-        <v>1</v>
-      </c>
-      <c r="F146" s="2">
-        <v>30</v>
-      </c>
+      <c r="E146" s="14"/>
+      <c r="F146" s="2"/>
     </row>
     <row r="147" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="13">
@@ -4155,12 +4284,8 @@
         <v>0.148958333333325</v>
       </c>
       <c r="D147" s="8"/>
-      <c r="E147" s="14">
-        <v>1</v>
-      </c>
-      <c r="F147" s="2">
-        <v>30</v>
-      </c>
+      <c r="E147" s="14"/>
+      <c r="F147" s="2"/>
     </row>
     <row r="148" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="13">
@@ -4174,12 +4299,8 @@
         <v>0.149999999999992</v>
       </c>
       <c r="D148" s="8"/>
-      <c r="E148" s="14">
-        <v>1</v>
-      </c>
-      <c r="F148" s="2">
-        <v>30</v>
-      </c>
+      <c r="E148" s="14"/>
+      <c r="F148" s="2"/>
     </row>
     <row r="149" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="13">
@@ -4193,12 +4314,8 @@
         <v>0.151041666666658</v>
       </c>
       <c r="D149" s="8"/>
-      <c r="E149" s="14">
-        <v>1</v>
-      </c>
-      <c r="F149" s="2">
-        <v>30</v>
-      </c>
+      <c r="E149" s="14"/>
+      <c r="F149" s="2"/>
     </row>
     <row r="150" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="13">
@@ -4212,12 +4329,8 @@
         <v>0.15208333333332499</v>
       </c>
       <c r="D150" s="8"/>
-      <c r="E150" s="14">
-        <v>1</v>
-      </c>
-      <c r="F150" s="2">
-        <v>30</v>
-      </c>
+      <c r="E150" s="14"/>
+      <c r="F150" s="2"/>
     </row>
     <row r="151" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="13">
@@ -4231,12 +4344,8 @@
         <v>0.15312499999999199</v>
       </c>
       <c r="D151" s="8"/>
-      <c r="E151" s="14">
-        <v>1</v>
-      </c>
-      <c r="F151" s="2">
-        <v>30</v>
-      </c>
+      <c r="E151" s="14"/>
+      <c r="F151" s="2"/>
     </row>
     <row r="152" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="13">
@@ -4250,12 +4359,8 @@
         <v>0.15416666666665799</v>
       </c>
       <c r="D152" s="8"/>
-      <c r="E152" s="14">
-        <v>1</v>
-      </c>
-      <c r="F152" s="2">
-        <v>30</v>
-      </c>
+      <c r="E152" s="14"/>
+      <c r="F152" s="2"/>
     </row>
     <row r="153" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="13">
@@ -4269,12 +4374,8 @@
         <v>0.15520833333332501</v>
       </c>
       <c r="D153" s="8"/>
-      <c r="E153" s="14">
-        <v>1</v>
-      </c>
-      <c r="F153" s="2">
-        <v>30</v>
-      </c>
+      <c r="E153" s="14"/>
+      <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="13">
@@ -4288,12 +4389,8 @@
         <v>0.15624999999999201</v>
       </c>
       <c r="D154" s="8"/>
-      <c r="E154" s="14">
-        <v>1</v>
-      </c>
-      <c r="F154" s="2">
-        <v>30</v>
-      </c>
+      <c r="E154" s="14"/>
+      <c r="F154" s="2"/>
     </row>
     <row r="155" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="13">
@@ -4307,12 +4404,8 @@
         <v>0.157291666666658</v>
       </c>
       <c r="D155" s="8"/>
-      <c r="E155" s="14">
-        <v>1</v>
-      </c>
-      <c r="F155" s="2">
-        <v>30</v>
-      </c>
+      <c r="E155" s="14"/>
+      <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="13">
@@ -4326,12 +4419,8 @@
         <v>0.158333333333325</v>
       </c>
       <c r="D156" s="8"/>
-      <c r="E156" s="14">
-        <v>1</v>
-      </c>
-      <c r="F156" s="2">
-        <v>30</v>
-      </c>
+      <c r="E156" s="14"/>
+      <c r="F156" s="2"/>
     </row>
     <row r="157" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="13">
@@ -4345,12 +4434,8 @@
         <v>0.159374999999991</v>
       </c>
       <c r="D157" s="8"/>
-      <c r="E157" s="14">
-        <v>1</v>
-      </c>
-      <c r="F157" s="2">
-        <v>30</v>
-      </c>
+      <c r="E157" s="14"/>
+      <c r="F157" s="2"/>
     </row>
     <row r="158" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="13">
@@ -4364,12 +4449,8 @@
         <v>0.16041666666665799</v>
       </c>
       <c r="D158" s="8"/>
-      <c r="E158" s="14">
-        <v>1</v>
-      </c>
-      <c r="F158" s="2">
-        <v>30</v>
-      </c>
+      <c r="E158" s="14"/>
+      <c r="F158" s="2"/>
     </row>
     <row r="159" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="13">
@@ -4383,12 +4464,8 @@
         <v>0.16145833333332499</v>
       </c>
       <c r="D159" s="8"/>
-      <c r="E159" s="14">
-        <v>1</v>
-      </c>
-      <c r="F159" s="2">
-        <v>30</v>
-      </c>
+      <c r="E159" s="14"/>
+      <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="13">
@@ -4402,12 +4479,8 @@
         <v>0.16249999999999101</v>
       </c>
       <c r="D160" s="8"/>
-      <c r="E160" s="14">
-        <v>1</v>
-      </c>
-      <c r="F160" s="2">
-        <v>30</v>
-      </c>
+      <c r="E160" s="14"/>
+      <c r="F160" s="2"/>
     </row>
     <row r="161" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="13">
@@ -4421,12 +4494,8 @@
         <v>0.16354166666665801</v>
       </c>
       <c r="D161" s="8"/>
-      <c r="E161" s="14">
-        <v>1</v>
-      </c>
-      <c r="F161" s="2">
-        <v>30</v>
-      </c>
+      <c r="E161" s="14"/>
+      <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="13">
@@ -4440,12 +4509,8 @@
         <v>0.16458333333332401</v>
       </c>
       <c r="D162" s="8"/>
-      <c r="E162" s="14">
-        <v>1</v>
-      </c>
-      <c r="F162" s="2">
-        <v>30</v>
-      </c>
+      <c r="E162" s="14"/>
+      <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="13">
@@ -4459,12 +4524,8 @@
         <v>0.165624999999991</v>
       </c>
       <c r="D163" s="8"/>
-      <c r="E163" s="14">
-        <v>1</v>
-      </c>
-      <c r="F163" s="2">
-        <v>30</v>
-      </c>
+      <c r="E163" s="14"/>
+      <c r="F163" s="2"/>
     </row>
     <row r="164" spans="1:8" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A164" s="12"/>
@@ -4593,7 +4654,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4:F4"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -4606,22 +4667,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
@@ -4630,10 +4691,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="5">
         <f ca="1">(E4+(F4/60))/60</f>
         <v>0.58333333333333337</v>
@@ -10086,8 +10147,8 @@
   <dimension ref="A1:H370"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="E4:F4"/>
+      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -10100,22 +10161,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
@@ -10124,10 +10185,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="5">
         <f ca="1">(E4+(F4/60))/60</f>
         <v>0.63888888888888895</v>
@@ -10152,11 +10213,11 @@
       </c>
       <c r="E4" s="7">
         <f ca="1">SUMIF(Table57815923[CHECK],"Done",E$5:E$72)+(((SUM($F$5:$F$369))-MOD($F$4,60))/60)</f>
-        <v>38</v>
+        <v>37.666666666666671</v>
       </c>
       <c r="F4" s="7">
         <f ca="1">MOD(SUMIF(Table578159235[CHECK],"Done",(F$5:F$72)),60)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -15887,7 +15948,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4:F4"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -15900,22 +15961,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
@@ -15924,10 +15985,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="5">
         <f ca="1">(E4+(F4/60))/60</f>
         <v>0.29166666666666669</v>
@@ -21588,9 +21649,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693F3BC6-A3F6-4704-BD4F-1CE335B2C24F}">
   <dimension ref="A1:G381"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -21603,22 +21664,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
@@ -21627,17 +21688,17 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="5">
         <f ca="1">(E4+(F4/60))/60</f>
-        <v>0.72583333333333333</v>
+        <v>0.33583333333333332</v>
       </c>
       <c r="F3" s="6">
         <f ca="1">(E4+(F4/60))</f>
-        <v>43.55</v>
+        <v>20.149999999999999</v>
       </c>
       <c r="G3" s="20"/>
     </row>
@@ -21656,11 +21717,11 @@
       </c>
       <c r="E4" s="7">
         <f ca="1">SUMIF(Table57815923[CHECK],"Done",E$5:E$72)+(((SUM($F$5:$F$369))-MOD($F$4,60))/60)</f>
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F4" s="7">
         <f ca="1">MOD(SUMIF(Table578159235[CHECK],"Done",(F$5:F$72)),60)</f>
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="G4" s="20"/>
     </row>
@@ -22325,15 +22386,9 @@
       <c r="C36" s="1">
         <v>1.4444444444444499E-2</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="14">
-        <v>0</v>
-      </c>
-      <c r="F36" s="2">
-        <v>39</v>
-      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="17">
@@ -22346,15 +22401,9 @@
       <c r="C37" s="1">
         <v>1.4895833333333299E-2</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="14">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2">
-        <v>39</v>
-      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="17">
@@ -22367,15 +22416,9 @@
       <c r="C38" s="1">
         <v>1.53472222222222E-2</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="14">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2">
-        <v>39</v>
-      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="17">
@@ -22388,15 +22431,9 @@
       <c r="C39" s="1">
         <v>1.57986111111111E-2</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="14">
-        <v>0</v>
-      </c>
-      <c r="F39" s="2">
-        <v>39</v>
-      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17">
@@ -22409,15 +22446,9 @@
       <c r="C40" s="1">
         <v>1.6250000000000001E-2</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="14">
-        <v>0</v>
-      </c>
-      <c r="F40" s="2">
-        <v>39</v>
-      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="17">
@@ -22430,15 +22461,9 @@
       <c r="C41" s="1">
         <v>1.6701388888888901E-2</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="14">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2">
-        <v>39</v>
-      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17">
@@ -22451,15 +22476,9 @@
       <c r="C42" s="1">
         <v>1.7152777777777801E-2</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="14">
-        <v>0</v>
-      </c>
-      <c r="F42" s="2">
-        <v>39</v>
-      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="17">
@@ -22472,15 +22491,9 @@
       <c r="C43" s="1">
         <v>1.7604166666666698E-2</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="14">
-        <v>0</v>
-      </c>
-      <c r="F43" s="2">
-        <v>39</v>
-      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="17">
@@ -22493,15 +22506,9 @@
       <c r="C44" s="1">
         <v>1.8055555555555599E-2</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="14">
-        <v>0</v>
-      </c>
-      <c r="F44" s="2">
-        <v>39</v>
-      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="17">
@@ -22514,15 +22521,9 @@
       <c r="C45" s="1">
         <v>1.8506944444444499E-2</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="14">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2">
-        <v>39</v>
-      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="17">
@@ -22535,15 +22536,9 @@
       <c r="C46" s="1">
         <v>1.8958333333333299E-2</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="14">
-        <v>0</v>
-      </c>
-      <c r="F46" s="2">
-        <v>39</v>
-      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="17">
@@ -22556,15 +22551,9 @@
       <c r="C47" s="1">
         <v>1.94097222222222E-2</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="14">
-        <v>0</v>
-      </c>
-      <c r="F47" s="2">
-        <v>39</v>
-      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17">
@@ -22577,15 +22566,9 @@
       <c r="C48" s="1">
         <v>1.98611111111111E-2</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="14">
-        <v>0</v>
-      </c>
-      <c r="F48" s="2">
-        <v>39</v>
-      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="17">
@@ -22598,15 +22581,9 @@
       <c r="C49" s="1">
         <v>2.0312500000000001E-2</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="14">
-        <v>0</v>
-      </c>
-      <c r="F49" s="2">
-        <v>39</v>
-      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="17">
@@ -22619,15 +22596,9 @@
       <c r="C50" s="1">
         <v>2.0763888888888901E-2</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="14">
-        <v>0</v>
-      </c>
-      <c r="F50" s="2">
-        <v>39</v>
-      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="17">
@@ -22640,15 +22611,9 @@
       <c r="C51" s="1">
         <v>2.1215277777777802E-2</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="14">
-        <v>0</v>
-      </c>
-      <c r="F51" s="2">
-        <v>39</v>
-      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="17">
@@ -22661,15 +22626,9 @@
       <c r="C52" s="1">
         <v>2.1666666666666699E-2</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="14">
-        <v>0</v>
-      </c>
-      <c r="F52" s="2">
-        <v>39</v>
-      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="17">
@@ -22682,15 +22641,9 @@
       <c r="C53" s="1">
         <v>2.2118055555555599E-2</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="14">
-        <v>0</v>
-      </c>
-      <c r="F53" s="2">
-        <v>39</v>
-      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17">
@@ -22703,15 +22656,9 @@
       <c r="C54" s="1">
         <v>2.25694444444445E-2</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="14">
-        <v>0</v>
-      </c>
-      <c r="F54" s="2">
-        <v>39</v>
-      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="17">
@@ -22724,15 +22671,9 @@
       <c r="C55" s="1">
         <v>2.3020833333333299E-2</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="14">
-        <v>0</v>
-      </c>
-      <c r="F55" s="2">
-        <v>39</v>
-      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="17">
@@ -22745,15 +22686,9 @@
       <c r="C56" s="1">
         <v>2.34722222222222E-2</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="14">
-        <v>0</v>
-      </c>
-      <c r="F56" s="2">
-        <v>39</v>
-      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="17">
@@ -22766,15 +22701,9 @@
       <c r="C57" s="1">
         <v>2.39236111111111E-2</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="14">
-        <v>0</v>
-      </c>
-      <c r="F57" s="2">
-        <v>39</v>
-      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="17">
@@ -22787,15 +22716,9 @@
       <c r="C58" s="1">
         <v>2.4375000000000001E-2</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="14">
-        <v>0</v>
-      </c>
-      <c r="F58" s="2">
-        <v>39</v>
-      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="17">
@@ -22808,15 +22731,9 @@
       <c r="C59" s="1">
         <v>2.4826388888888901E-2</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="14">
-        <v>0</v>
-      </c>
-      <c r="F59" s="2">
-        <v>39</v>
-      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="17">
@@ -22829,15 +22746,9 @@
       <c r="C60" s="1">
         <v>2.5277777777777798E-2</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="14">
-        <v>0</v>
-      </c>
-      <c r="F60" s="2">
-        <v>39</v>
-      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="17">
@@ -22850,15 +22761,9 @@
       <c r="C61" s="1">
         <v>2.5729166666666699E-2</v>
       </c>
-      <c r="D61" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="14">
-        <v>0</v>
-      </c>
-      <c r="F61" s="2">
-        <v>39</v>
-      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="17">
@@ -22871,15 +22776,9 @@
       <c r="C62" s="1">
         <v>2.6180555555555599E-2</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="14">
-        <v>0</v>
-      </c>
-      <c r="F62" s="2">
-        <v>39</v>
-      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="17">
@@ -22892,15 +22791,9 @@
       <c r="C63" s="1">
         <v>2.66319444444445E-2</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="14">
-        <v>0</v>
-      </c>
-      <c r="F63" s="2">
-        <v>39</v>
-      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="17">
@@ -22913,15 +22806,9 @@
       <c r="C64" s="1">
         <v>2.70833333333333E-2</v>
       </c>
-      <c r="D64" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="14">
-        <v>0</v>
-      </c>
-      <c r="F64" s="2">
-        <v>39</v>
-      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="17">
@@ -22934,15 +22821,9 @@
       <c r="C65" s="1">
         <v>2.75347222222222E-2</v>
       </c>
-      <c r="D65" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="14">
-        <v>0</v>
-      </c>
-      <c r="F65" s="2">
-        <v>39</v>
-      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="17">
@@ -22955,15 +22836,9 @@
       <c r="C66" s="1">
         <v>2.7986111111111101E-2</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="14">
-        <v>0</v>
-      </c>
-      <c r="F66" s="2">
-        <v>39</v>
-      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="17">
@@ -22976,15 +22851,9 @@
       <c r="C67" s="1">
         <v>2.8437500000000001E-2</v>
       </c>
-      <c r="D67" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="14">
-        <v>0</v>
-      </c>
-      <c r="F67" s="2">
-        <v>39</v>
-      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="17">
@@ -22997,15 +22866,9 @@
       <c r="C68" s="1">
         <v>2.8888888888888901E-2</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="14">
-        <v>0</v>
-      </c>
-      <c r="F68" s="2">
-        <v>39</v>
-      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="17">
@@ -23018,15 +22881,9 @@
       <c r="C69" s="1">
         <v>2.9340277777777798E-2</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="14">
-        <v>0</v>
-      </c>
-      <c r="F69" s="2">
-        <v>39</v>
-      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="17">
@@ -23039,15 +22896,9 @@
       <c r="C70" s="1">
         <v>2.9791666666666699E-2</v>
       </c>
-      <c r="D70" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="14">
-        <v>0</v>
-      </c>
-      <c r="F70" s="2">
-        <v>39</v>
-      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="17">
@@ -23060,15 +22911,9 @@
       <c r="C71" s="1">
         <v>3.0243055555555599E-2</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="14">
-        <v>0</v>
-      </c>
-      <c r="F71" s="2">
-        <v>39</v>
-      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="17">
@@ -27603,11 +27448,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C9CEC0-53FF-4D0F-937E-11B47350BB5D}">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4:F4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -27616,38 +27461,62 @@
     <col min="2" max="4" width="12.6640625" style="9" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="12" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="9"/>
+    <col min="7" max="7" width="42.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.6640625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:12" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-    </row>
-    <row r="2" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+    </row>
+    <row r="2" spans="1:12" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="G2" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="5">
         <f ca="1">(E4+(F4/60))/60</f>
         <v>0.57944444444444443</v>
@@ -27656,8 +27525,20 @@
         <f ca="1">(E4+(F4/60))</f>
         <v>34.766666666666666</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="5">
+        <f ca="1">(K4+(L4/60))/60</f>
+        <v>0.59583333333333333</v>
+      </c>
+      <c r="L3" s="19">
+        <f ca="1">(K4+(L4/60))</f>
+        <v>35.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
@@ -27675,11 +27556,31 @@
         <v>34</v>
       </c>
       <c r="F4" s="7">
-        <f ca="1">MOD(SUMIF(Table578159235[CHECK],"Done",(F$5:F$72)),60)</f>
+        <f ca="1">MOD(SUMIF(Table578159235[CHECK],"Done",(F5:F72)),60)</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="7">
+        <f ca="1">SUMIF(Table20142,"Done",K$5:K72)+(((SUM(L5:L369))-MOD(L$4,60))/60)</f>
+        <v>35.75</v>
+      </c>
+      <c r="L4" s="21">
+        <f ca="1">MOD(SUMIF(G2:J160,"Done",(L5:L72)),60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
         <v>45564</v>
       </c>
@@ -27698,8 +27599,26 @@
       <c r="F5" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="17">
+        <v>45570</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6.3657407407407413E-4</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <f>A5+1</f>
         <v>45565</v>
@@ -27719,8 +27638,27 @@
       <c r="F6" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="17">
+        <f>G5+1</f>
+        <v>45571</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6.3657407407407413E-4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1.2731481481481483E-3</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <f t="shared" ref="A7:A70" si="0">A6+1</f>
         <v>45566</v>
@@ -27740,8 +27678,27 @@
       <c r="F7" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="17">
+        <f t="shared" ref="G7:G70" si="1">G6+1</f>
+        <v>45572</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.00127314814815</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.90972222222222E-3</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17">
         <f t="shared" si="0"/>
         <v>45567</v>
@@ -27761,8 +27718,27 @@
       <c r="F8" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="17">
+        <f t="shared" si="1"/>
+        <v>45573</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.9097222222201899E-3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.54629629629629E-3</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17">
         <f t="shared" si="0"/>
         <v>45568</v>
@@ -27782,8 +27758,27 @@
       <c r="F9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="17">
+        <f t="shared" si="1"/>
+        <v>45574</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2.5462962963000999E-3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3.1828703703703702E-3</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>45569</v>
@@ -27803,8 +27798,27 @@
       <c r="F10" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="17">
+        <f t="shared" si="1"/>
+        <v>45575</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3.1828703703702401E-3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3.81944444444444E-3</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>45570</v>
@@ -27818,8 +27832,27 @@
       <c r="D11" s="8"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="17">
+        <f t="shared" si="1"/>
+        <v>45576</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3.8194444444403799E-3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4.4560185185185102E-3</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17">
         <f t="shared" si="0"/>
         <v>45571</v>
@@ -27833,8 +27866,27 @@
       <c r="D12" s="8"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="17">
+        <f t="shared" si="1"/>
+        <v>45577</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4.45601851852029E-3</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5.0925925925925904E-3</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17">
         <f t="shared" si="0"/>
         <v>45572</v>
@@ -27848,8 +27900,27 @@
       <c r="D13" s="8"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="17">
+        <f t="shared" si="1"/>
+        <v>45578</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5.0925925925904298E-3</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5.7291666666666602E-3</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17">
         <f t="shared" si="0"/>
         <v>45573</v>
@@ -27863,8 +27934,27 @@
       <c r="D14" s="8"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="17">
+        <f t="shared" si="1"/>
+        <v>45579</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5.7291666666703404E-3</v>
+      </c>
+      <c r="I14" s="1">
+        <v>6.3657407407407404E-3</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17">
         <f t="shared" si="0"/>
         <v>45574</v>
@@ -27878,8 +27968,27 @@
       <c r="D15" s="8"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="17">
+        <f t="shared" si="1"/>
+        <v>45580</v>
+      </c>
+      <c r="H15" s="1">
+        <v>6.3657407407404802E-3</v>
+      </c>
+      <c r="I15" s="1">
+        <v>7.0023148148148102E-3</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17">
         <f t="shared" si="0"/>
         <v>45575</v>
@@ -27893,8 +28002,27 @@
       <c r="D16" s="8"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="17">
+        <f t="shared" si="1"/>
+        <v>45581</v>
+      </c>
+      <c r="H16" s="1">
+        <v>7.0023148147999601E-3</v>
+      </c>
+      <c r="I16" s="1">
+        <v>7.6388888888888904E-3</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17">
         <f t="shared" si="0"/>
         <v>45576</v>
@@ -27908,8 +28036,27 @@
       <c r="D17" s="8"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="17">
+        <f t="shared" si="1"/>
+        <v>45582</v>
+      </c>
+      <c r="H17" s="1">
+        <v>7.6388888889002996E-3</v>
+      </c>
+      <c r="I17" s="1">
+        <v>8.2754629629629602E-3</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17">
         <f t="shared" si="0"/>
         <v>45577</v>
@@ -27923,8 +28070,27 @@
       <c r="D18" s="8"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="17">
+        <f t="shared" si="1"/>
+        <v>45583</v>
+      </c>
+      <c r="H18" s="1">
+        <v>8.2754629630006297E-3</v>
+      </c>
+      <c r="I18" s="1">
+        <v>8.9120370370370308E-3</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17">
         <f t="shared" si="0"/>
         <v>45578</v>
@@ -27938,8 +28104,27 @@
       <c r="D19" s="8"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="17">
+        <f t="shared" si="1"/>
+        <v>45584</v>
+      </c>
+      <c r="H19" s="1">
+        <v>8.9120370369997204E-3</v>
+      </c>
+      <c r="I19" s="1">
+        <v>9.5486111111111101E-3</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17">
         <f t="shared" si="0"/>
         <v>45579</v>
@@ -27953,8 +28138,27 @@
       <c r="D20" s="8"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="17">
+        <f t="shared" si="1"/>
+        <v>45585</v>
+      </c>
+      <c r="H20" s="1">
+        <v>9.54861111110006E-3</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1.01851851851852E-2</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17">
         <f t="shared" si="0"/>
         <v>45580</v>
@@ -27968,8 +28172,27 @@
       <c r="D21" s="8"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="17">
+        <f t="shared" si="1"/>
+        <v>45586</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1.01851851852004E-2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1.08217592592593E-2</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17">
         <f t="shared" si="0"/>
         <v>45581</v>
@@ -27983,8 +28206,27 @@
       <c r="D22" s="8"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="17">
+        <f t="shared" si="1"/>
+        <v>45587</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1.0821759259300699E-2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1.14583333333334E-2</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17">
         <f t="shared" si="0"/>
         <v>45582</v>
@@ -27998,8 +28240,27 @@
       <c r="D23" s="8"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="17">
+        <f t="shared" si="1"/>
+        <v>45588</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1.1458333333301599E-2</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1.20949074074074E-2</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17">
         <f t="shared" si="0"/>
         <v>45583</v>
@@ -28013,8 +28274,27 @@
       <c r="D24" s="8"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G24" s="17">
+        <f t="shared" si="1"/>
+        <v>45589</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1.20949074073984E-2</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1.27314814814815E-2</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="17">
         <f t="shared" si="0"/>
         <v>45584</v>
@@ -28028,8 +28308,27 @@
       <c r="D25" s="8"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G25" s="17">
+        <f t="shared" si="1"/>
+        <v>45590</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.27314814814987E-2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1.33680555555556E-2</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17">
         <f t="shared" si="0"/>
         <v>45585</v>
@@ -28043,8 +28342,27 @@
       <c r="D26" s="8"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G26" s="17">
+        <f t="shared" si="1"/>
+        <v>45591</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1.33680555555991E-2</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1.40046296296297E-2</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17">
         <f t="shared" si="0"/>
         <v>45586</v>
@@ -28058,8 +28376,27 @@
       <c r="D27" s="8"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G27" s="17">
+        <f t="shared" si="1"/>
+        <v>45592</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1.4004629629599899E-2</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1.46412037037037E-2</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17">
         <f t="shared" si="0"/>
         <v>45587</v>
@@ -28073,8 +28410,27 @@
       <c r="D28" s="8"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G28" s="17">
+        <f t="shared" si="1"/>
+        <v>45593</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1.46412037037003E-2</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1.52777777777778E-2</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17">
         <f t="shared" si="0"/>
         <v>45588</v>
@@ -28088,8 +28444,27 @@
       <c r="D29" s="8"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="17">
+        <f t="shared" si="1"/>
+        <v>45594</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1.5277777777800599E-2</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1.5914351851851902E-2</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17">
         <f t="shared" si="0"/>
         <v>45589</v>
@@ -28103,8 +28478,27 @@
       <c r="D30" s="8"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G30" s="17">
+        <f t="shared" si="1"/>
+        <v>45595</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1.5914351851900901E-2</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1.6550925925926E-2</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="17">
         <f t="shared" si="0"/>
         <v>45590</v>
@@ -28118,8 +28512,27 @@
       <c r="D31" s="8"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="17">
+        <f t="shared" si="1"/>
+        <v>45596</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1.6550925925898199E-2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1.7187500000000001E-2</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17">
         <f t="shared" si="0"/>
         <v>45591</v>
@@ -28133,8 +28546,27 @@
       <c r="D32" s="8"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="17">
+        <f t="shared" si="1"/>
+        <v>45597</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1.71874999999986E-2</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1.78240740740741E-2</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="17">
         <f t="shared" si="0"/>
         <v>45592</v>
@@ -28148,8 +28580,27 @@
       <c r="D33" s="8"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G33" s="17">
+        <f t="shared" si="1"/>
+        <v>45598</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1.7824074074098899E-2</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1.8460648148148202E-2</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="17">
         <f t="shared" si="0"/>
         <v>45593</v>
@@ -28163,8 +28614,27 @@
       <c r="D34" s="8"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G34" s="17">
+        <f t="shared" si="1"/>
+        <v>45599</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1.8460648148099799E-2</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1.9097222222222199E-2</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="17">
         <f t="shared" si="0"/>
         <v>45594</v>
@@ -28178,8 +28648,27 @@
       <c r="D35" s="8"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G35" s="17">
+        <f t="shared" si="1"/>
+        <v>45600</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1.9097222222200099E-2</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1.9733796296296301E-2</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="17">
         <f t="shared" si="0"/>
         <v>45595</v>
@@ -28193,8 +28682,27 @@
       <c r="D36" s="8"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="17">
+        <f t="shared" si="1"/>
+        <v>45601</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1.9733796296300499E-2</v>
+      </c>
+      <c r="I36" s="1">
+        <v>2.03703703703704E-2</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="17">
         <f t="shared" si="0"/>
         <v>45596</v>
@@ -28208,8 +28716,27 @@
       <c r="D37" s="8"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G37" s="17">
+        <f t="shared" si="1"/>
+        <v>45602</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2.0370370370400799E-2</v>
+      </c>
+      <c r="I37" s="1">
+        <v>2.1006944444444502E-2</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="17">
         <f t="shared" si="0"/>
         <v>45597</v>
@@ -28223,8 +28750,27 @@
       <c r="D38" s="8"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G38" s="17">
+        <f t="shared" si="1"/>
+        <v>45603</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2.1006944444401699E-2</v>
+      </c>
+      <c r="I38" s="1">
+        <v>2.1643518518518499E-2</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="17">
         <f t="shared" si="0"/>
         <v>45598</v>
@@ -28238,8 +28784,27 @@
       <c r="D39" s="8"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G39" s="17">
+        <f t="shared" si="1"/>
+        <v>45604</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2.1643518518501999E-2</v>
+      </c>
+      <c r="I39" s="1">
+        <v>2.2280092592592601E-2</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17">
         <f t="shared" si="0"/>
         <v>45599</v>
@@ -28253,8 +28818,27 @@
       <c r="D40" s="8"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G40" s="17">
+        <f t="shared" si="1"/>
+        <v>45605</v>
+      </c>
+      <c r="H40" s="1">
+        <v>2.2280092592602298E-2</v>
+      </c>
+      <c r="I40" s="1">
+        <v>2.29166666666667E-2</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="17">
         <f t="shared" si="0"/>
         <v>45600</v>
@@ -28268,8 +28852,27 @@
       <c r="D41" s="8"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G41" s="17">
+        <f t="shared" si="1"/>
+        <v>45606</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2.2916666666702699E-2</v>
+      </c>
+      <c r="I41" s="1">
+        <v>2.3553240740740802E-2</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17">
         <f t="shared" si="0"/>
         <v>45601</v>
@@ -28283,8 +28886,27 @@
       <c r="D42" s="8"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G42" s="17">
+        <f t="shared" si="1"/>
+        <v>45607</v>
+      </c>
+      <c r="H42" s="1">
+        <v>2.3553240740703502E-2</v>
+      </c>
+      <c r="I42" s="1">
+        <v>2.4189814814814799E-2</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="17">
         <f t="shared" si="0"/>
         <v>45602</v>
@@ -28298,8 +28920,27 @@
       <c r="D43" s="8"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G43" s="17">
+        <f t="shared" si="1"/>
+        <v>45608</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2.41898148147968E-2</v>
+      </c>
+      <c r="I43" s="1">
+        <v>2.4826388888888901E-2</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="17">
         <f t="shared" si="0"/>
         <v>45603</v>
@@ -28313,8 +28954,21 @@
       <c r="D44" s="8"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G44" s="17">
+        <f t="shared" si="1"/>
+        <v>45609</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2.48263888888971E-2</v>
+      </c>
+      <c r="I44" s="1">
+        <v>2.5462962962963E-2</v>
+      </c>
+      <c r="J44" s="8"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="17">
         <f t="shared" si="0"/>
         <v>45604</v>
@@ -28328,8 +28982,21 @@
       <c r="D45" s="8"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G45" s="17">
+        <f t="shared" si="1"/>
+        <v>45610</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2.5462962962997399E-2</v>
+      </c>
+      <c r="I45" s="1">
+        <v>2.6099537037037102E-2</v>
+      </c>
+      <c r="J45" s="8"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="17">
         <f t="shared" si="0"/>
         <v>45605</v>
@@ -28343,8 +29010,21 @@
       <c r="D46" s="8"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G46" s="17">
+        <f t="shared" si="1"/>
+        <v>45611</v>
+      </c>
+      <c r="H46" s="1">
+        <v>2.6099537036998299E-2</v>
+      </c>
+      <c r="I46" s="1">
+        <v>2.6736111111111099E-2</v>
+      </c>
+      <c r="J46" s="8"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="17">
         <f t="shared" si="0"/>
         <v>45606</v>
@@ -28358,8 +29038,21 @@
       <c r="D47" s="8"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G47" s="17">
+        <f t="shared" si="1"/>
+        <v>45612</v>
+      </c>
+      <c r="H47" s="1">
+        <v>2.6736111111098599E-2</v>
+      </c>
+      <c r="I47" s="1">
+        <v>2.7372685185185201E-2</v>
+      </c>
+      <c r="J47" s="8"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17">
         <f t="shared" si="0"/>
         <v>45607</v>
@@ -28373,8 +29066,21 @@
       <c r="D48" s="8"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G48" s="17">
+        <f t="shared" si="1"/>
+        <v>45613</v>
+      </c>
+      <c r="H48" s="1">
+        <v>2.7372685185198999E-2</v>
+      </c>
+      <c r="I48" s="1">
+        <v>2.80092592592593E-2</v>
+      </c>
+      <c r="J48" s="8"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="17">
         <f t="shared" si="0"/>
         <v>45608</v>
@@ -28388,8 +29094,21 @@
       <c r="D49" s="8"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G49" s="17">
+        <f t="shared" si="1"/>
+        <v>45614</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2.8009259259299299E-2</v>
+      </c>
+      <c r="I49" s="1">
+        <v>2.8645833333333402E-2</v>
+      </c>
+      <c r="J49" s="8"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="17">
         <f t="shared" si="0"/>
         <v>45609</v>
@@ -28403,8 +29122,21 @@
       <c r="D50" s="8"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G50" s="17">
+        <f t="shared" si="1"/>
+        <v>45615</v>
+      </c>
+      <c r="H50" s="1">
+        <v>2.8645833333300199E-2</v>
+      </c>
+      <c r="I50" s="1">
+        <v>2.9282407407407399E-2</v>
+      </c>
+      <c r="J50" s="8"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="17">
         <f t="shared" si="0"/>
         <v>45610</v>
@@ -28418,8 +29150,21 @@
       <c r="D51" s="8"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G51" s="17">
+        <f t="shared" si="1"/>
+        <v>45616</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2.9282407407400499E-2</v>
+      </c>
+      <c r="I51" s="1">
+        <v>2.9918981481481501E-2</v>
+      </c>
+      <c r="J51" s="8"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="17">
         <f t="shared" si="0"/>
         <v>45611</v>
@@ -28433,8 +29178,21 @@
       <c r="D52" s="8"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G52" s="17">
+        <f t="shared" si="1"/>
+        <v>45617</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2.9918981481500899E-2</v>
+      </c>
+      <c r="I52" s="1">
+        <v>3.05555555555556E-2</v>
+      </c>
+      <c r="J52" s="8"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="17">
         <f t="shared" si="0"/>
         <v>45612</v>
@@ -28448,8 +29206,21 @@
       <c r="D53" s="8"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G53" s="17">
+        <f t="shared" si="1"/>
+        <v>45618</v>
+      </c>
+      <c r="H53" s="1">
+        <v>3.0555555555601199E-2</v>
+      </c>
+      <c r="I53" s="1">
+        <v>3.1192129629629702E-2</v>
+      </c>
+      <c r="J53" s="8"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17">
         <f t="shared" si="0"/>
         <v>45613</v>
@@ -28463,8 +29234,21 @@
       <c r="D54" s="8"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G54" s="17">
+        <f t="shared" si="1"/>
+        <v>45619</v>
+      </c>
+      <c r="H54" s="1">
+        <v>3.1192129629602099E-2</v>
+      </c>
+      <c r="I54" s="1">
+        <v>3.1828703703703699E-2</v>
+      </c>
+      <c r="J54" s="8"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="17">
         <f t="shared" si="0"/>
         <v>45614</v>
@@ -28478,8 +29262,21 @@
       <c r="D55" s="8"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G55" s="17">
+        <f t="shared" si="1"/>
+        <v>45620</v>
+      </c>
+      <c r="H55" s="1">
+        <v>3.1828703703702402E-2</v>
+      </c>
+      <c r="I55" s="1">
+        <v>3.2465277777777801E-2</v>
+      </c>
+      <c r="J55" s="8"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="17">
         <f t="shared" si="0"/>
         <v>45615</v>
@@ -28493,8 +29290,21 @@
       <c r="D56" s="8"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G56" s="17">
+        <f t="shared" si="1"/>
+        <v>45621</v>
+      </c>
+      <c r="H56" s="1">
+        <v>3.2465277777802698E-2</v>
+      </c>
+      <c r="I56" s="1">
+        <v>3.3101851851851903E-2</v>
+      </c>
+      <c r="J56" s="8"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="17">
         <f t="shared" si="0"/>
         <v>45616</v>
@@ -28508,8 +29318,21 @@
       <c r="D57" s="8"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G57" s="17">
+        <f t="shared" si="1"/>
+        <v>45622</v>
+      </c>
+      <c r="H57" s="1">
+        <v>3.3101851851903098E-2</v>
+      </c>
+      <c r="I57" s="1">
+        <v>3.3738425925925998E-2</v>
+      </c>
+      <c r="J57" s="8"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="17">
         <f t="shared" si="0"/>
         <v>45617</v>
@@ -28523,8 +29346,21 @@
       <c r="D58" s="8"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G58" s="17">
+        <f t="shared" si="1"/>
+        <v>45623</v>
+      </c>
+      <c r="H58" s="1">
+        <v>3.3738425925896799E-2</v>
+      </c>
+      <c r="I58" s="1">
+        <v>3.4375000000000003E-2</v>
+      </c>
+      <c r="J58" s="8"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="17">
         <f t="shared" si="0"/>
         <v>45618</v>
@@ -28538,8 +29374,21 @@
       <c r="D59" s="8"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G59" s="17">
+        <f t="shared" si="1"/>
+        <v>45624</v>
+      </c>
+      <c r="H59" s="1">
+        <v>3.4374999999997199E-2</v>
+      </c>
+      <c r="I59" s="1">
+        <v>3.5011574074074098E-2</v>
+      </c>
+      <c r="J59" s="8"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="17">
         <f t="shared" si="0"/>
         <v>45619</v>
@@ -28553,8 +29402,21 @@
       <c r="D60" s="8"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G60" s="17">
+        <f t="shared" si="1"/>
+        <v>45625</v>
+      </c>
+      <c r="H60" s="1">
+        <v>3.5011574074097503E-2</v>
+      </c>
+      <c r="I60" s="1">
+        <v>3.56481481481482E-2</v>
+      </c>
+      <c r="J60" s="8"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="17">
         <f t="shared" si="0"/>
         <v>45620</v>
@@ -28568,8 +29430,21 @@
       <c r="D61" s="8"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G61" s="17">
+        <f t="shared" si="1"/>
+        <v>45626</v>
+      </c>
+      <c r="H61" s="1">
+        <v>3.5648148148197799E-2</v>
+      </c>
+      <c r="I61" s="1">
+        <v>3.6284722222222301E-2</v>
+      </c>
+      <c r="J61" s="8"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="17">
         <f t="shared" si="0"/>
         <v>45621</v>
@@ -28583,8 +29458,21 @@
       <c r="D62" s="8"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G62" s="17">
+        <f t="shared" si="1"/>
+        <v>45627</v>
+      </c>
+      <c r="H62" s="1">
+        <v>3.6284722222198702E-2</v>
+      </c>
+      <c r="I62" s="1">
+        <v>3.6921296296296299E-2</v>
+      </c>
+      <c r="J62" s="8"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="17">
         <f t="shared" si="0"/>
         <v>45622</v>
@@ -28598,8 +29486,21 @@
       <c r="D63" s="8"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G63" s="17">
+        <f t="shared" si="1"/>
+        <v>45628</v>
+      </c>
+      <c r="H63" s="1">
+        <v>3.6921296296298999E-2</v>
+      </c>
+      <c r="I63" s="1">
+        <v>3.7557870370370401E-2</v>
+      </c>
+      <c r="J63" s="8"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="17">
         <f t="shared" si="0"/>
         <v>45623</v>
@@ -28613,8 +29514,21 @@
       <c r="D64" s="8"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G64" s="17">
+        <f t="shared" si="1"/>
+        <v>45629</v>
+      </c>
+      <c r="H64" s="1">
+        <v>3.7557870370399399E-2</v>
+      </c>
+      <c r="I64" s="1">
+        <v>3.8194444444444503E-2</v>
+      </c>
+      <c r="J64" s="8"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="17">
         <f t="shared" si="0"/>
         <v>45624</v>
@@ -28628,8 +29542,21 @@
       <c r="D65" s="8"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G65" s="17">
+        <f t="shared" si="1"/>
+        <v>45630</v>
+      </c>
+      <c r="H65" s="1">
+        <v>3.8194444444400198E-2</v>
+      </c>
+      <c r="I65" s="1">
+        <v>3.8831018518518501E-2</v>
+      </c>
+      <c r="J65" s="8"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="17">
         <f t="shared" si="0"/>
         <v>45625</v>
@@ -28643,8 +29570,21 @@
       <c r="D66" s="8"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G66" s="17">
+        <f t="shared" si="1"/>
+        <v>45631</v>
+      </c>
+      <c r="H66" s="1">
+        <v>3.8831018518500598E-2</v>
+      </c>
+      <c r="I66" s="1">
+        <v>3.9467592592592603E-2</v>
+      </c>
+      <c r="J66" s="8"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+    </row>
+    <row r="67" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="17">
         <f t="shared" si="0"/>
         <v>45626</v>
@@ -28658,8 +29598,21 @@
       <c r="D67" s="8"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G67" s="17">
+        <f t="shared" si="1"/>
+        <v>45632</v>
+      </c>
+      <c r="H67" s="1">
+        <v>3.9467592592600902E-2</v>
+      </c>
+      <c r="I67" s="1">
+        <v>4.0104166666666698E-2</v>
+      </c>
+      <c r="J67" s="8"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="17">
         <f t="shared" si="0"/>
         <v>45627</v>
@@ -28673,8 +29626,21 @@
       <c r="D68" s="8"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G68" s="17">
+        <f t="shared" si="1"/>
+        <v>45633</v>
+      </c>
+      <c r="H68" s="1">
+        <v>4.0104166666701198E-2</v>
+      </c>
+      <c r="I68" s="1">
+        <v>4.07407407407408E-2</v>
+      </c>
+      <c r="J68" s="8"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+    </row>
+    <row r="69" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="17">
         <f t="shared" si="0"/>
         <v>45628</v>
@@ -28688,8 +29654,21 @@
       <c r="D69" s="8"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G69" s="17">
+        <f t="shared" si="1"/>
+        <v>45634</v>
+      </c>
+      <c r="H69" s="1">
+        <v>4.0740740740702101E-2</v>
+      </c>
+      <c r="I69" s="1">
+        <v>4.1377314814814797E-2</v>
+      </c>
+      <c r="J69" s="8"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="17">
         <f t="shared" si="0"/>
         <v>45629</v>
@@ -28703,10 +29682,23 @@
       <c r="D70" s="8"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G70" s="17">
+        <f t="shared" si="1"/>
+        <v>45635</v>
+      </c>
+      <c r="H70" s="1">
+        <v>4.1377314814795299E-2</v>
+      </c>
+      <c r="I70" s="1">
+        <v>4.2013888888888899E-2</v>
+      </c>
+      <c r="J70" s="8"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+    </row>
+    <row r="71" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="17">
-        <f t="shared" ref="A71:A98" si="1">A70+1</f>
+        <f t="shared" ref="A71:A98" si="2">A70+1</f>
         <v>45630</v>
       </c>
       <c r="B71" s="1">
@@ -28718,10 +29710,23 @@
       <c r="D71" s="8"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G71" s="17">
+        <f t="shared" ref="G71:G92" si="3">G70+1</f>
+        <v>45636</v>
+      </c>
+      <c r="H71" s="1">
+        <v>4.2013888888902798E-2</v>
+      </c>
+      <c r="I71" s="1">
+        <v>4.2650462962963001E-2</v>
+      </c>
+      <c r="J71" s="8"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+    </row>
+    <row r="72" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45631</v>
       </c>
       <c r="B72" s="1">
@@ -28733,10 +29738,23 @@
       <c r="D72" s="8"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G72" s="17">
+        <f t="shared" si="3"/>
+        <v>45637</v>
+      </c>
+      <c r="H72" s="1">
+        <v>4.2650462962996002E-2</v>
+      </c>
+      <c r="I72" s="1">
+        <v>4.3287037037037103E-2</v>
+      </c>
+      <c r="J72" s="8"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45632</v>
       </c>
       <c r="B73" s="1">
@@ -28748,10 +29766,23 @@
       <c r="D73" s="8"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G73" s="17">
+        <f t="shared" si="3"/>
+        <v>45638</v>
+      </c>
+      <c r="H73" s="1">
+        <v>4.3287037037003998E-2</v>
+      </c>
+      <c r="I73" s="1">
+        <v>4.3923611111111101E-2</v>
+      </c>
+      <c r="J73" s="8"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+    </row>
+    <row r="74" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45633</v>
       </c>
       <c r="B74" s="1">
@@ -28763,10 +29794,23 @@
       <c r="D74" s="8"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G74" s="17">
+        <f t="shared" si="3"/>
+        <v>45639</v>
+      </c>
+      <c r="H74" s="1">
+        <v>4.3923611111097202E-2</v>
+      </c>
+      <c r="I74" s="1">
+        <v>4.4560185185185203E-2</v>
+      </c>
+      <c r="J74" s="8"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+    </row>
+    <row r="75" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45634</v>
       </c>
       <c r="B75" s="1">
@@ -28778,10 +29822,23 @@
       <c r="D75" s="8"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G75" s="17">
+        <f t="shared" si="3"/>
+        <v>45640</v>
+      </c>
+      <c r="H75" s="1">
+        <v>4.4560185185204701E-2</v>
+      </c>
+      <c r="I75" s="1">
+        <v>4.5196759259259298E-2</v>
+      </c>
+      <c r="J75" s="8"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+    </row>
+    <row r="76" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45635</v>
       </c>
       <c r="B76" s="1">
@@ -28793,10 +29850,23 @@
       <c r="D76" s="8"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G76" s="17">
+        <f t="shared" si="3"/>
+        <v>45641</v>
+      </c>
+      <c r="H76" s="1">
+        <v>4.5196759259297899E-2</v>
+      </c>
+      <c r="I76" s="1">
+        <v>4.5833333333333399E-2</v>
+      </c>
+      <c r="J76" s="8"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+    </row>
+    <row r="77" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45636</v>
       </c>
       <c r="B77" s="1">
@@ -28808,10 +29878,23 @@
       <c r="D77" s="8"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G77" s="17">
+        <f t="shared" si="3"/>
+        <v>45642</v>
+      </c>
+      <c r="H77" s="1">
+        <v>4.5833333333305901E-2</v>
+      </c>
+      <c r="I77" s="1">
+        <v>4.6469907407407397E-2</v>
+      </c>
+      <c r="J77" s="8"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+    </row>
+    <row r="78" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45637</v>
       </c>
       <c r="B78" s="1">
@@ -28823,10 +29906,23 @@
       <c r="D78" s="8"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G78" s="17">
+        <f t="shared" si="3"/>
+        <v>45643</v>
+      </c>
+      <c r="H78" s="1">
+        <v>4.6469907407399098E-2</v>
+      </c>
+      <c r="I78" s="1">
+        <v>4.7106481481481499E-2</v>
+      </c>
+      <c r="J78" s="8"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+    </row>
+    <row r="79" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45638</v>
       </c>
       <c r="B79" s="1">
@@ -28838,10 +29934,23 @@
       <c r="D79" s="8"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G79" s="17">
+        <f t="shared" si="3"/>
+        <v>45644</v>
+      </c>
+      <c r="H79" s="1">
+        <v>4.71064814815065E-2</v>
+      </c>
+      <c r="I79" s="1">
+        <v>4.7743055555555601E-2</v>
+      </c>
+      <c r="J79" s="8"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45639</v>
       </c>
       <c r="B80" s="1">
@@ -28853,10 +29962,23 @@
       <c r="D80" s="8"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
-    </row>
-    <row r="81" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G80" s="17">
+        <f t="shared" si="3"/>
+        <v>45645</v>
+      </c>
+      <c r="H80" s="1">
+        <v>4.7743055555599802E-2</v>
+      </c>
+      <c r="I80" s="1">
+        <v>4.8379629629629703E-2</v>
+      </c>
+      <c r="J80" s="8"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45640</v>
       </c>
       <c r="B81" s="1">
@@ -28868,10 +29990,23 @@
       <c r="D81" s="8"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
-    </row>
-    <row r="82" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G81" s="17">
+        <f t="shared" si="3"/>
+        <v>45646</v>
+      </c>
+      <c r="H81" s="1">
+        <v>4.8379629629593503E-2</v>
+      </c>
+      <c r="I81" s="1">
+        <v>4.9016203703703701E-2</v>
+      </c>
+      <c r="J81" s="8"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+    </row>
+    <row r="82" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45641</v>
       </c>
       <c r="B82" s="1">
@@ -28883,10 +30018,23 @@
       <c r="D82" s="8"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
-    </row>
-    <row r="83" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G82" s="17">
+        <f t="shared" si="3"/>
+        <v>45647</v>
+      </c>
+      <c r="H82" s="1">
+        <v>4.9016203703701001E-2</v>
+      </c>
+      <c r="I82" s="1">
+        <v>4.9652777777777803E-2</v>
+      </c>
+      <c r="J82" s="8"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45642</v>
       </c>
       <c r="B83" s="1">
@@ -28898,10 +30046,23 @@
       <c r="D83" s="8"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G83" s="17">
+        <f t="shared" si="3"/>
+        <v>45648</v>
+      </c>
+      <c r="H83" s="1">
+        <v>4.9652777777794199E-2</v>
+      </c>
+      <c r="I83" s="1">
+        <v>5.0289351851851898E-2</v>
+      </c>
+      <c r="J83" s="8"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+    </row>
+    <row r="84" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45643</v>
       </c>
       <c r="B84" s="1">
@@ -28913,10 +30074,23 @@
       <c r="D84" s="8"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
-    </row>
-    <row r="85" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G84" s="17">
+        <f t="shared" si="3"/>
+        <v>45649</v>
+      </c>
+      <c r="H84" s="1">
+        <v>5.0289351851901601E-2</v>
+      </c>
+      <c r="I84" s="1">
+        <v>5.0925925925925999E-2</v>
+      </c>
+      <c r="J84" s="8"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+    </row>
+    <row r="85" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45644</v>
       </c>
       <c r="B85" s="1">
@@ -28928,10 +30102,23 @@
       <c r="D85" s="8"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G85" s="17">
+        <f t="shared" si="3"/>
+        <v>45650</v>
+      </c>
+      <c r="H85" s="1">
+        <v>5.0925925925895399E-2</v>
+      </c>
+      <c r="I85" s="1">
+        <v>5.1562499999999997E-2</v>
+      </c>
+      <c r="J85" s="8"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+    </row>
+    <row r="86" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45645</v>
       </c>
       <c r="B86" s="1">
@@ -28943,10 +30130,23 @@
       <c r="D86" s="8"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
-    </row>
-    <row r="87" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G86" s="17">
+        <f t="shared" si="3"/>
+        <v>45651</v>
+      </c>
+      <c r="H86" s="1">
+        <v>5.1562500000002801E-2</v>
+      </c>
+      <c r="I86" s="1">
+        <v>5.2199074074074099E-2</v>
+      </c>
+      <c r="J86" s="8"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+    </row>
+    <row r="87" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45646</v>
       </c>
       <c r="B87" s="1">
@@ -28958,10 +30158,23 @@
       <c r="D87" s="8"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
-    </row>
-    <row r="88" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G87" s="17">
+        <f t="shared" si="3"/>
+        <v>45652</v>
+      </c>
+      <c r="H87" s="1">
+        <v>5.2199074074096102E-2</v>
+      </c>
+      <c r="I87" s="1">
+        <v>5.2835648148148201E-2</v>
+      </c>
+      <c r="J87" s="8"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+    </row>
+    <row r="88" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45647</v>
       </c>
       <c r="B88" s="1">
@@ -28973,10 +30186,23 @@
       <c r="D88" s="8"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
-    </row>
-    <row r="89" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G88" s="17">
+        <f t="shared" si="3"/>
+        <v>45653</v>
+      </c>
+      <c r="H88" s="1">
+        <v>5.2835648148104E-2</v>
+      </c>
+      <c r="I88" s="1">
+        <v>5.3472222222222303E-2</v>
+      </c>
+      <c r="J88" s="8"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+    </row>
+    <row r="89" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45648</v>
       </c>
       <c r="B89" s="1">
@@ -28988,10 +30214,23 @@
       <c r="D89" s="8"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G89" s="17">
+        <f t="shared" si="3"/>
+        <v>45654</v>
+      </c>
+      <c r="H89" s="1">
+        <v>5.3472222222197302E-2</v>
+      </c>
+      <c r="I89" s="1">
+        <v>5.4108796296296301E-2</v>
+      </c>
+      <c r="J89" s="8"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+    </row>
+    <row r="90" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45649</v>
       </c>
       <c r="B90" s="1">
@@ -29003,10 +30242,23 @@
       <c r="D90" s="8"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
-    </row>
-    <row r="91" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G90" s="17">
+        <f t="shared" si="3"/>
+        <v>45655</v>
+      </c>
+      <c r="H90" s="1">
+        <v>5.4108796296304697E-2</v>
+      </c>
+      <c r="I90" s="1">
+        <v>5.4745370370370403E-2</v>
+      </c>
+      <c r="J90" s="8"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+    </row>
+    <row r="91" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45650</v>
       </c>
       <c r="B91" s="1">
@@ -29018,10 +30270,23 @@
       <c r="D91" s="8"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
-    </row>
-    <row r="92" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G91" s="17">
+        <f t="shared" si="3"/>
+        <v>45656</v>
+      </c>
+      <c r="H91" s="1">
+        <v>5.4745370370397901E-2</v>
+      </c>
+      <c r="I91" s="1">
+        <v>5.5381944444444497E-2</v>
+      </c>
+      <c r="J91" s="8"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+    </row>
+    <row r="92" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45651</v>
       </c>
       <c r="B92" s="1">
@@ -29033,10 +30298,23 @@
       <c r="D92" s="8"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
-    </row>
-    <row r="93" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G92" s="17">
+        <f t="shared" si="3"/>
+        <v>45657</v>
+      </c>
+      <c r="H92" s="1">
+        <v>5.5381944444405903E-2</v>
+      </c>
+      <c r="I92" s="1">
+        <v>5.6018518518518502E-2</v>
+      </c>
+      <c r="J92" s="8"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+    </row>
+    <row r="93" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45652</v>
       </c>
       <c r="B93" s="1">
@@ -29048,10 +30326,12 @@
       <c r="D93" s="8"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
-    </row>
-    <row r="94" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G93" s="9"/>
+      <c r="K93" s="9"/>
+    </row>
+    <row r="94" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45653</v>
       </c>
       <c r="B94" s="1">
@@ -29063,10 +30343,12 @@
       <c r="D94" s="8"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-    </row>
-    <row r="95" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G94" s="9"/>
+      <c r="K94" s="9"/>
+    </row>
+    <row r="95" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45654</v>
       </c>
       <c r="B95" s="1">
@@ -29078,10 +30360,12 @@
       <c r="D95" s="8"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
-    </row>
-    <row r="96" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G95" s="9"/>
+      <c r="K95" s="9"/>
+    </row>
+    <row r="96" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45655</v>
       </c>
       <c r="B96" s="1">
@@ -29093,10 +30377,12 @@
       <c r="D96" s="8"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
-    </row>
-    <row r="97" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G96" s="9"/>
+      <c r="K96" s="9"/>
+    </row>
+    <row r="97" spans="1:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45656</v>
       </c>
       <c r="B97" s="1">
@@ -29108,10 +30394,12 @@
       <c r="D97" s="8"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
-    </row>
-    <row r="98" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G97" s="9"/>
+      <c r="K97" s="9"/>
+    </row>
+    <row r="98" spans="1:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45657</v>
       </c>
       <c r="B98" s="1">
@@ -29123,17 +30411,1886 @@
       <c r="D98" s="8"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
-    </row>
-    <row r="99" spans="1:6" ht="21.6" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="G98" s="9"/>
+      <c r="K98" s="9"/>
+    </row>
+    <row r="99" spans="1:11" ht="21.6" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:D3"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="G2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAD7C17-09EB-4F73-A124-CCFB578ED3D8}">
+  <dimension ref="B2:I230"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" style="29" customWidth="1"/>
+    <col min="3" max="9" width="30.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B2" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+    </row>
+    <row r="3" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="27">
+        <v>45571</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="27">
+        <v>45572</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="27">
+        <v>45573</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="27">
+        <v>45574</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="27">
+        <v>45575</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="27">
+        <v>45576</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="27">
+        <v>45577</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="27">
+        <v>45578</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="27">
+        <v>45579</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="27">
+        <v>45580</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="27">
+        <v>45581</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="27">
+        <v>45582</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="27">
+        <v>45583</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="27">
+        <v>45584</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="27">
+        <v>45585</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="27">
+        <v>45586</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="27">
+        <v>45587</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="27">
+        <v>45588</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="27">
+        <v>45589</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="27">
+        <v>45590</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="27">
+        <v>45591</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="27">
+        <v>45592</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="27">
+        <v>45593</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="27">
+        <v>45594</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="27">
+        <v>45595</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+    </row>
+    <row r="29" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="27">
+        <v>45596</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+    </row>
+    <row r="30" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="27">
+        <v>45597</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+    </row>
+    <row r="31" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="27">
+        <v>45598</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="27">
+        <v>45599</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+    </row>
+    <row r="33" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="27">
+        <v>45600</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="27">
+        <v>45601</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+    </row>
+    <row r="35" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="27">
+        <v>45602</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+    </row>
+    <row r="36" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="27">
+        <v>45603</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+    </row>
+    <row r="37" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="27">
+        <v>45604</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+    </row>
+    <row r="38" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="27">
+        <v>45605</v>
+      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+    </row>
+    <row r="39" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="27">
+        <v>45606</v>
+      </c>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+    </row>
+    <row r="40" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="27">
+        <v>45607</v>
+      </c>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+    </row>
+    <row r="41" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="27">
+        <v>45608</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+    </row>
+    <row r="42" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="27">
+        <v>45609</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+    </row>
+    <row r="43" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="27">
+        <v>45610</v>
+      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+    </row>
+    <row r="44" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="27">
+        <v>45611</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+    </row>
+    <row r="45" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="27">
+        <v>45612</v>
+      </c>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+    </row>
+    <row r="46" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="27">
+        <v>45613</v>
+      </c>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+    </row>
+    <row r="47" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="27">
+        <v>45614</v>
+      </c>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+    </row>
+    <row r="48" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="27">
+        <v>45615</v>
+      </c>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+    </row>
+    <row r="49" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="27">
+        <v>45616</v>
+      </c>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+    </row>
+    <row r="50" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="27">
+        <v>45617</v>
+      </c>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+    </row>
+    <row r="51" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="27">
+        <v>45618</v>
+      </c>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+    </row>
+    <row r="52" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="27">
+        <v>45619</v>
+      </c>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+    </row>
+    <row r="53" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="27">
+        <v>45620</v>
+      </c>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+    </row>
+    <row r="54" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="27">
+        <v>45621</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+    </row>
+    <row r="55" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="27">
+        <v>45622</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+    </row>
+    <row r="56" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="27">
+        <v>45623</v>
+      </c>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+    </row>
+    <row r="57" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="27">
+        <v>45624</v>
+      </c>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+    </row>
+    <row r="58" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="27">
+        <v>45625</v>
+      </c>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+    </row>
+    <row r="59" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="27">
+        <v>45626</v>
+      </c>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+    </row>
+    <row r="60" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="27">
+        <v>45627</v>
+      </c>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+    </row>
+    <row r="61" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="27">
+        <v>45628</v>
+      </c>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+    </row>
+    <row r="62" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="27">
+        <v>45629</v>
+      </c>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+    </row>
+    <row r="63" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="27">
+        <v>45630</v>
+      </c>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+    </row>
+    <row r="64" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="27">
+        <v>45631</v>
+      </c>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+    </row>
+    <row r="65" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="27">
+        <v>45632</v>
+      </c>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+    </row>
+    <row r="66" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="27">
+        <v>45633</v>
+      </c>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+    </row>
+    <row r="67" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="27">
+        <v>45634</v>
+      </c>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+    </row>
+    <row r="68" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="27">
+        <v>45635</v>
+      </c>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+    </row>
+    <row r="69" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="27">
+        <v>45636</v>
+      </c>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+    </row>
+    <row r="70" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="27">
+        <v>45637</v>
+      </c>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+    </row>
+    <row r="71" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="27">
+        <v>45638</v>
+      </c>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+    </row>
+    <row r="72" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="27">
+        <v>45639</v>
+      </c>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+    </row>
+    <row r="73" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="27">
+        <v>45640</v>
+      </c>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+    </row>
+    <row r="74" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="27">
+        <v>45641</v>
+      </c>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+    </row>
+    <row r="75" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="27">
+        <v>45642</v>
+      </c>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+    </row>
+    <row r="76" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="27">
+        <v>45643</v>
+      </c>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+    </row>
+    <row r="77" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="27">
+        <v>45644</v>
+      </c>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+    </row>
+    <row r="78" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="27">
+        <v>45645</v>
+      </c>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+    </row>
+    <row r="79" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="27">
+        <v>45646</v>
+      </c>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+    </row>
+    <row r="80" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="27">
+        <v>45647</v>
+      </c>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+    </row>
+    <row r="81" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="27">
+        <v>45648</v>
+      </c>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+    </row>
+    <row r="82" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="27">
+        <v>45649</v>
+      </c>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+    </row>
+    <row r="83" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="27">
+        <v>45650</v>
+      </c>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+    </row>
+    <row r="84" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="27">
+        <v>45651</v>
+      </c>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+    </row>
+    <row r="85" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="27">
+        <v>45652</v>
+      </c>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+    </row>
+    <row r="86" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="27">
+        <v>45653</v>
+      </c>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+    </row>
+    <row r="87" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="27">
+        <v>45654</v>
+      </c>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+    </row>
+    <row r="88" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="27">
+        <v>45655</v>
+      </c>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+    </row>
+    <row r="89" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="27">
+        <v>45656</v>
+      </c>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+    </row>
+    <row r="90" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="28">
+        <v>45657</v>
+      </c>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
+    </row>
+    <row r="91" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="29"/>
+    </row>
+    <row r="92" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="29"/>
+    </row>
+    <row r="93" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="29"/>
+    </row>
+    <row r="94" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="29"/>
+    </row>
+    <row r="95" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="29"/>
+    </row>
+    <row r="96" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="29"/>
+    </row>
+    <row r="97" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="29"/>
+    </row>
+    <row r="98" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="29"/>
+    </row>
+    <row r="99" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="29"/>
+    </row>
+    <row r="100" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="29"/>
+    </row>
+    <row r="101" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="29"/>
+    </row>
+    <row r="102" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="29"/>
+    </row>
+    <row r="103" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="29"/>
+    </row>
+    <row r="104" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="29"/>
+    </row>
+    <row r="105" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="29"/>
+    </row>
+    <row r="106" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="29"/>
+    </row>
+    <row r="107" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="29"/>
+    </row>
+    <row r="108" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="29"/>
+    </row>
+    <row r="109" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="29"/>
+    </row>
+    <row r="110" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="29"/>
+    </row>
+    <row r="111" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="29"/>
+    </row>
+    <row r="112" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="29"/>
+    </row>
+    <row r="113" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="29"/>
+    </row>
+    <row r="114" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="29"/>
+    </row>
+    <row r="115" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="29"/>
+    </row>
+    <row r="116" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="29"/>
+    </row>
+    <row r="117" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="29"/>
+    </row>
+    <row r="118" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="29"/>
+    </row>
+    <row r="119" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="29"/>
+    </row>
+    <row r="120" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="29"/>
+    </row>
+    <row r="121" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="29"/>
+    </row>
+    <row r="122" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="29"/>
+    </row>
+    <row r="123" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="29"/>
+    </row>
+    <row r="124" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="29"/>
+    </row>
+    <row r="125" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="29"/>
+    </row>
+    <row r="126" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="29"/>
+    </row>
+    <row r="127" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="29"/>
+    </row>
+    <row r="128" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="29"/>
+    </row>
+    <row r="129" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="29"/>
+    </row>
+    <row r="130" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="29"/>
+    </row>
+    <row r="131" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="29"/>
+    </row>
+    <row r="132" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="29"/>
+    </row>
+    <row r="133" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="29"/>
+    </row>
+    <row r="134" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="29"/>
+    </row>
+    <row r="135" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="29"/>
+    </row>
+    <row r="136" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="29"/>
+    </row>
+    <row r="137" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="29"/>
+    </row>
+    <row r="138" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="29"/>
+    </row>
+    <row r="139" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="29"/>
+    </row>
+    <row r="140" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="29"/>
+    </row>
+    <row r="141" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="29"/>
+    </row>
+    <row r="142" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="29"/>
+    </row>
+    <row r="143" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="29"/>
+    </row>
+    <row r="144" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="29"/>
+    </row>
+    <row r="145" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="29"/>
+    </row>
+    <row r="146" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="29"/>
+    </row>
+    <row r="147" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="29"/>
+    </row>
+    <row r="148" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="29"/>
+    </row>
+    <row r="149" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="29"/>
+    </row>
+    <row r="150" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="29"/>
+    </row>
+    <row r="151" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="29"/>
+    </row>
+    <row r="152" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="29"/>
+    </row>
+    <row r="153" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="29"/>
+    </row>
+    <row r="154" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="29"/>
+    </row>
+    <row r="155" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="29"/>
+    </row>
+    <row r="156" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="29"/>
+    </row>
+    <row r="157" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="29"/>
+    </row>
+    <row r="158" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="29"/>
+    </row>
+    <row r="159" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="29"/>
+    </row>
+    <row r="160" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="29"/>
+    </row>
+    <row r="161" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="29"/>
+    </row>
+    <row r="162" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="29"/>
+    </row>
+    <row r="163" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="29"/>
+    </row>
+    <row r="164" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="29"/>
+    </row>
+    <row r="165" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="29"/>
+    </row>
+    <row r="166" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="29"/>
+    </row>
+    <row r="167" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="29"/>
+    </row>
+    <row r="168" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="29"/>
+    </row>
+    <row r="169" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="29"/>
+    </row>
+    <row r="170" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="29"/>
+    </row>
+    <row r="171" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="29"/>
+    </row>
+    <row r="172" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="29"/>
+    </row>
+    <row r="173" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="29"/>
+    </row>
+    <row r="174" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="29"/>
+    </row>
+    <row r="175" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="29"/>
+    </row>
+    <row r="176" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="29"/>
+    </row>
+    <row r="177" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="29"/>
+    </row>
+    <row r="178" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="29"/>
+    </row>
+    <row r="179" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="29"/>
+    </row>
+    <row r="180" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="29"/>
+    </row>
+    <row r="181" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="29"/>
+    </row>
+    <row r="182" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="29"/>
+    </row>
+    <row r="183" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="29"/>
+    </row>
+    <row r="184" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="29"/>
+    </row>
+    <row r="185" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="29"/>
+    </row>
+    <row r="186" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="29"/>
+    </row>
+    <row r="187" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="29"/>
+    </row>
+    <row r="188" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="29"/>
+    </row>
+    <row r="189" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="29"/>
+    </row>
+    <row r="190" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="29"/>
+    </row>
+    <row r="191" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="29"/>
+    </row>
+    <row r="192" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="29"/>
+    </row>
+    <row r="193" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="29"/>
+    </row>
+    <row r="194" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="29"/>
+    </row>
+    <row r="195" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="29"/>
+    </row>
+    <row r="196" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="29"/>
+    </row>
+    <row r="197" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="29"/>
+    </row>
+    <row r="198" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="29"/>
+    </row>
+    <row r="199" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="29"/>
+    </row>
+    <row r="200" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="29"/>
+    </row>
+    <row r="201" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="29"/>
+    </row>
+    <row r="202" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="29"/>
+    </row>
+    <row r="203" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="29"/>
+    </row>
+    <row r="204" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="29"/>
+    </row>
+    <row r="205" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B205" s="29"/>
+    </row>
+    <row r="206" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B206" s="29"/>
+    </row>
+    <row r="207" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B207" s="29"/>
+    </row>
+    <row r="208" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="29"/>
+    </row>
+    <row r="209" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B209" s="29"/>
+    </row>
+    <row r="210" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="29"/>
+    </row>
+    <row r="211" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="29"/>
+    </row>
+    <row r="212" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="29"/>
+    </row>
+    <row r="213" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="29"/>
+    </row>
+    <row r="214" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="29"/>
+    </row>
+    <row r="215" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="29"/>
+    </row>
+    <row r="216" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="29"/>
+    </row>
+    <row r="217" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="29"/>
+    </row>
+    <row r="218" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="29"/>
+    </row>
+    <row r="219" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="29"/>
+    </row>
+    <row r="220" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B220" s="29"/>
+    </row>
+    <row r="221" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B221" s="29"/>
+    </row>
+    <row r="222" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="29"/>
+    </row>
+    <row r="223" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="29"/>
+    </row>
+    <row r="224" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="29"/>
+    </row>
+    <row r="225" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="29"/>
+    </row>
+    <row r="226" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="29"/>
+    </row>
+    <row r="227" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B227" s="29"/>
+    </row>
+    <row r="228" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="29"/>
+    </row>
+    <row r="229" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="29"/>
+    </row>
+    <row r="230" spans="2:2" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/track.xlsx
+++ b/track.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Builds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Builds\disney-clone-youtube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE03EE0-FCA2-41D8-B40B-A2E9FEF8EAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41F409B-494D-443F-951B-762430F58A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="3" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -27450,9 +27450,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C9CEC0-53FF-4D0F-937E-11B47350BB5D}">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L43" sqref="L43"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -27531,11 +27531,11 @@
       <c r="J3" s="34"/>
       <c r="K3" s="5">
         <f ca="1">(K4+(L4/60))/60</f>
-        <v>0.59583333333333333</v>
+        <v>0.80972222222222223</v>
       </c>
       <c r="L3" s="19">
         <f ca="1">(K4+(L4/60))</f>
-        <v>35.75</v>
+        <v>48.583333333333336</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -27573,7 +27573,7 @@
       </c>
       <c r="K4" s="7">
         <f ca="1">SUMIF(Table20142,"Done",K$5:K72)+(((SUM(L5:L369))-MOD(L$4,60))/60)</f>
-        <v>35.75</v>
+        <v>48.583333333333336</v>
       </c>
       <c r="L4" s="21">
         <f ca="1">MOD(SUMIF(G2:J160,"Done",(L5:L72)),60)</f>
@@ -28964,9 +28964,15 @@
       <c r="I44" s="1">
         <v>2.5462962962963E-2</v>
       </c>
-      <c r="J44" s="8"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
+      <c r="J44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="17">
@@ -28992,9 +28998,15 @@
       <c r="I45" s="1">
         <v>2.6099537037037102E-2</v>
       </c>
-      <c r="J45" s="8"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
+      <c r="J45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="17">
@@ -29020,9 +29032,15 @@
       <c r="I46" s="1">
         <v>2.6736111111111099E-2</v>
       </c>
-      <c r="J46" s="8"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
+      <c r="J46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="47" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="17">
@@ -29048,9 +29066,15 @@
       <c r="I47" s="1">
         <v>2.7372685185185201E-2</v>
       </c>
-      <c r="J47" s="8"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
+      <c r="J47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="48" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17">
@@ -29076,9 +29100,15 @@
       <c r="I48" s="1">
         <v>2.80092592592593E-2</v>
       </c>
-      <c r="J48" s="8"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
+      <c r="J48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="49" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="17">
@@ -29104,9 +29134,15 @@
       <c r="I49" s="1">
         <v>2.8645833333333402E-2</v>
       </c>
-      <c r="J49" s="8"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
+      <c r="J49" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="50" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="17">
@@ -29132,9 +29168,15 @@
       <c r="I50" s="1">
         <v>2.9282407407407399E-2</v>
       </c>
-      <c r="J50" s="8"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
+      <c r="J50" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="51" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="17">
@@ -29160,9 +29202,15 @@
       <c r="I51" s="1">
         <v>2.9918981481481501E-2</v>
       </c>
-      <c r="J51" s="8"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
+      <c r="J51" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="52" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="17">
@@ -29188,9 +29236,15 @@
       <c r="I52" s="1">
         <v>3.05555555555556E-2</v>
       </c>
-      <c r="J52" s="8"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
+      <c r="J52" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="53" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="17">
@@ -29216,9 +29270,15 @@
       <c r="I53" s="1">
         <v>3.1192129629629702E-2</v>
       </c>
-      <c r="J53" s="8"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
+      <c r="J53" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="54" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17">
@@ -29244,9 +29304,15 @@
       <c r="I54" s="1">
         <v>3.1828703703703699E-2</v>
       </c>
-      <c r="J54" s="8"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
+      <c r="J54" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="55" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="17">
@@ -29272,9 +29338,15 @@
       <c r="I55" s="1">
         <v>3.2465277777777801E-2</v>
       </c>
-      <c r="J55" s="8"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
+      <c r="J55" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="56" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="17">
@@ -29300,9 +29372,15 @@
       <c r="I56" s="1">
         <v>3.3101851851851903E-2</v>
       </c>
-      <c r="J56" s="8"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
+      <c r="J56" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="57" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="17">
@@ -29328,9 +29406,15 @@
       <c r="I57" s="1">
         <v>3.3738425925925998E-2</v>
       </c>
-      <c r="J57" s="8"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
+      <c r="J57" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="2">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="58" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="17">
@@ -30435,8 +30519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAD7C17-09EB-4F73-A124-CCFB578ED3D8}">
   <dimension ref="B2:I230"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:I27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31112,25 +31196,53 @@
       <c r="B28" s="27">
         <v>45595</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
+      <c r="C28" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="29" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="27">
         <v>45596</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
+      <c r="C29" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="30" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="27">

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Builds\disney-clone-youtube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41F409B-494D-443F-951B-762430F58A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59F8B49-E563-4360-B201-19B8A0D1857B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="3" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -115,9 +115,6 @@
 Is To Learn NEXT JS</t>
   </si>
   <si>
-    <t>Next.js Tutorial   Codevolution</t>
-  </si>
-  <si>
     <t>2018 Year Resolution As a 27-Year-Old
 Is To Be Able To Host My Videos Online For people To see</t>
   </si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>2024.2</t>
+  </si>
+  <si>
+    <t>Next.js 14 Tutorial   Codevolution</t>
   </si>
 </sst>
 </file>
@@ -21665,7 +21665,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -21675,7 +21675,7 @@
     </row>
     <row r="2" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -27450,9 +27450,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C9CEC0-53FF-4D0F-937E-11B47350BB5D}">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K56" sqref="K56"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -27478,7 +27478,7 @@
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
       <c r="G1" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -27488,7 +27488,7 @@
     </row>
     <row r="2" spans="1:12" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -27500,7 +27500,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
@@ -27519,11 +27519,11 @@
       <c r="D3" s="34"/>
       <c r="E3" s="5">
         <f ca="1">(E4+(F4/60))/60</f>
-        <v>0.57944444444444443</v>
+        <v>0.46583333333333332</v>
       </c>
       <c r="F3" s="19">
         <f ca="1">(E4+(F4/60))</f>
-        <v>34.766666666666666</v>
+        <v>27.95</v>
       </c>
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
@@ -27531,11 +27531,11 @@
       <c r="J3" s="34"/>
       <c r="K3" s="5">
         <f ca="1">(K4+(L4/60))/60</f>
-        <v>0.80972222222222223</v>
+        <v>1.3444444444444446</v>
       </c>
       <c r="L3" s="19">
         <f ca="1">(K4+(L4/60))</f>
-        <v>48.583333333333336</v>
+        <v>80.666666666666671</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -27553,11 +27553,11 @@
       </c>
       <c r="E4" s="7">
         <f ca="1">SUMIF(Table57815923[CHECK],"Done",E$5:E$72)+(((SUM($F$5:$F$369))-MOD($F$4,60))/60)</f>
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F4" s="7">
         <f ca="1">MOD(SUMIF(Table578159235[CHECK],"Done",(F5:F72)),60)</f>
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>0</v>
@@ -27573,7 +27573,7 @@
       </c>
       <c r="K4" s="7">
         <f ca="1">SUMIF(Table20142,"Done",K$5:K72)+(((SUM(L5:L369))-MOD(L$4,60))/60)</f>
-        <v>48.583333333333336</v>
+        <v>80.666666666666671</v>
       </c>
       <c r="L4" s="21">
         <f ca="1">MOD(SUMIF(G2:J160,"Done",(L5:L72)),60)</f>
@@ -27588,16 +27588,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>4.6874999999999998E-3</v>
+        <v>3.5416666666666665E-3</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
         <v>6</v>
-      </c>
-      <c r="F5" s="2">
-        <v>45</v>
       </c>
       <c r="G5" s="17">
         <v>45570</v>
@@ -27624,10 +27624,10 @@
         <v>45565</v>
       </c>
       <c r="B6" s="1">
-        <v>4.6874999999999998E-3</v>
+        <v>3.5416666666666665E-3</v>
       </c>
       <c r="C6" s="1">
-        <v>7.0949074074074074E-3</v>
+        <v>5.8680555555555552E-3</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>11</v>
@@ -27636,7 +27636,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="2">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G6" s="17">
         <f>G5+1</f>
@@ -27664,19 +27664,19 @@
         <v>45566</v>
       </c>
       <c r="B7" s="1">
-        <v>7.0949074074074074E-3</v>
+        <v>5.8449074074074072E-3</v>
       </c>
       <c r="C7" s="1">
-        <v>1.4513888888888889E-2</v>
+        <v>9.8842592592592593E-3</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G7" s="17">
         <f t="shared" ref="G7:G70" si="1">G6+1</f>
@@ -27704,10 +27704,10 @@
         <v>45567</v>
       </c>
       <c r="B8" s="1">
-        <v>1.4513888888888889E-2</v>
+        <v>9.8842592592592593E-3</v>
       </c>
       <c r="C8" s="1">
-        <v>1.6284722222222221E-2</v>
+        <v>1.1342592592592593E-2</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>11</v>
@@ -27716,7 +27716,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="2">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G8" s="17">
         <f t="shared" si="1"/>
@@ -27744,19 +27744,19 @@
         <v>45568</v>
       </c>
       <c r="B9" s="1">
-        <v>1.6284722222222221E-2</v>
+        <v>1.1342592592592593E-2</v>
       </c>
       <c r="C9" s="1">
-        <v>2.0462962962962964E-2</v>
+        <v>1.6736111111111111E-2</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="1"/>
@@ -27784,19 +27784,19 @@
         <v>45569</v>
       </c>
       <c r="B10" s="1">
-        <v>2.0462962962962964E-2</v>
+        <v>1.6736111111111111E-2</v>
       </c>
       <c r="C10" s="1">
-        <v>2.4143518518518519E-2</v>
+        <v>1.9409722222222221E-2</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="G10" s="17">
         <f t="shared" si="1"/>
@@ -27824,12 +27824,13 @@
         <v>45570</v>
       </c>
       <c r="B11" s="1">
-        <v>2.8125000000000198E-2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3.2812500000000001E-2</v>
-      </c>
-      <c r="D11" s="8"/>
+        <f>C10</f>
+        <v>1.9409722222222221E-2</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="17">
@@ -27858,12 +27859,13 @@
         <v>45571</v>
       </c>
       <c r="B12" s="1">
-        <v>3.2812500000000397E-2</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="D12" s="8"/>
+        <f>C11</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="17">
@@ -27892,12 +27894,13 @@
         <v>45572</v>
       </c>
       <c r="B13" s="1">
-        <v>3.7499999999999603E-2</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4.2187500000000003E-2</v>
-      </c>
-      <c r="D13" s="8"/>
+        <f>C12</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="17">
@@ -27926,12 +27929,13 @@
         <v>45573</v>
       </c>
       <c r="B14" s="1">
-        <v>4.2187500000000697E-2</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4.6875E-2</v>
-      </c>
-      <c r="D14" s="8"/>
+        <f>C13</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="17">
@@ -27960,12 +27964,13 @@
         <v>45574</v>
       </c>
       <c r="B15" s="1">
-        <v>4.6875E-2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5.1562499999999997E-2</v>
-      </c>
-      <c r="D15" s="8"/>
+        <f>C14</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="17">
@@ -27994,12 +27999,13 @@
         <v>45575</v>
       </c>
       <c r="B16" s="1">
-        <v>5.1562499999999303E-2</v>
-      </c>
-      <c r="C16" s="1">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="D16" s="8"/>
+        <f t="shared" ref="B16:B79" si="2">C15</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="17">
@@ -28028,7 +28034,8 @@
         <v>45576</v>
       </c>
       <c r="B17" s="1">
-        <v>5.6250000000000397E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="C17" s="1">
         <v>6.0937499999999999E-2</v>
@@ -28062,7 +28069,8 @@
         <v>45577</v>
       </c>
       <c r="B18" s="1">
-        <v>6.0937499999999603E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.0937499999999999E-2</v>
       </c>
       <c r="C18" s="1">
         <v>6.5625000000000003E-2</v>
@@ -28096,7 +28104,8 @@
         <v>45578</v>
       </c>
       <c r="B19" s="1">
-        <v>6.5625000000000697E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.5625000000000003E-2</v>
       </c>
       <c r="C19" s="1">
         <v>7.03125E-2</v>
@@ -28130,6 +28139,7 @@
         <v>45579</v>
       </c>
       <c r="B20" s="1">
+        <f t="shared" si="2"/>
         <v>7.03125E-2</v>
       </c>
       <c r="C20" s="1">
@@ -28164,7 +28174,8 @@
         <v>45580</v>
       </c>
       <c r="B21" s="1">
-        <v>7.4999999999999303E-2</v>
+        <f t="shared" si="2"/>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C21" s="1">
         <v>7.9687499999999994E-2</v>
@@ -28198,7 +28209,8 @@
         <v>45581</v>
       </c>
       <c r="B22" s="1">
-        <v>7.9687499999998607E-2</v>
+        <f t="shared" si="2"/>
+        <v>7.9687499999999994E-2</v>
       </c>
       <c r="C22" s="1">
         <v>8.4375000000000006E-2</v>
@@ -28232,7 +28244,8 @@
         <v>45582</v>
       </c>
       <c r="B23" s="1">
-        <v>8.4375000000001393E-2</v>
+        <f t="shared" si="2"/>
+        <v>8.4375000000000006E-2</v>
       </c>
       <c r="C23" s="1">
         <v>8.9062500000000003E-2</v>
@@ -28266,7 +28279,8 @@
         <v>45583</v>
       </c>
       <c r="B24" s="1">
-        <v>8.9062500000000697E-2</v>
+        <f t="shared" si="2"/>
+        <v>8.9062500000000003E-2</v>
       </c>
       <c r="C24" s="1">
         <v>9.375E-2</v>
@@ -28300,6 +28314,7 @@
         <v>45584</v>
       </c>
       <c r="B25" s="1">
+        <f t="shared" si="2"/>
         <v>9.375E-2</v>
       </c>
       <c r="C25" s="1">
@@ -28334,7 +28349,8 @@
         <v>45585</v>
       </c>
       <c r="B26" s="1">
-        <v>9.8437499999999303E-2</v>
+        <f t="shared" si="2"/>
+        <v>9.8437499999999997E-2</v>
       </c>
       <c r="C26" s="1">
         <v>0.10312499999999999</v>
@@ -28368,7 +28384,8 @@
         <v>45586</v>
       </c>
       <c r="B27" s="1">
-        <v>0.103124999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.10312499999999999</v>
       </c>
       <c r="C27" s="1">
         <v>0.10781250000000001</v>
@@ -28402,7 +28419,8 @@
         <v>45587</v>
       </c>
       <c r="B28" s="1">
-        <v>0.107812500000001</v>
+        <f t="shared" si="2"/>
+        <v>0.10781250000000001</v>
       </c>
       <c r="C28" s="1">
         <v>0.1125</v>
@@ -28436,7 +28454,8 @@
         <v>45588</v>
       </c>
       <c r="B29" s="1">
-        <v>0.112500000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.1125</v>
       </c>
       <c r="C29" s="1">
         <v>0.1171875</v>
@@ -28470,6 +28489,7 @@
         <v>45589</v>
       </c>
       <c r="B30" s="1">
+        <f t="shared" si="2"/>
         <v>0.1171875</v>
       </c>
       <c r="C30" s="1">
@@ -28504,7 +28524,8 @@
         <v>45590</v>
       </c>
       <c r="B31" s="1">
-        <v>0.121874999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.121875</v>
       </c>
       <c r="C31" s="1">
         <v>0.12656249999999999</v>
@@ -28538,7 +28559,8 @@
         <v>45591</v>
       </c>
       <c r="B32" s="1">
-        <v>0.126562499999999</v>
+        <f t="shared" si="2"/>
+        <v>0.12656249999999999</v>
       </c>
       <c r="C32" s="1">
         <v>0.13125000000000001</v>
@@ -28572,7 +28594,8 @@
         <v>45592</v>
       </c>
       <c r="B33" s="1">
-        <v>0.131250000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.13125000000000001</v>
       </c>
       <c r="C33" s="1">
         <v>0.13593749999999999</v>
@@ -28606,7 +28629,8 @@
         <v>45593</v>
       </c>
       <c r="B34" s="1">
-        <v>0.13593750000000099</v>
+        <f t="shared" si="2"/>
+        <v>0.13593749999999999</v>
       </c>
       <c r="C34" s="1">
         <v>0.140625</v>
@@ -28640,6 +28664,7 @@
         <v>45594</v>
       </c>
       <c r="B35" s="1">
+        <f t="shared" si="2"/>
         <v>0.140625</v>
       </c>
       <c r="C35" s="1">
@@ -28674,7 +28699,8 @@
         <v>45595</v>
       </c>
       <c r="B36" s="1">
-        <v>0.14531249999999901</v>
+        <f t="shared" si="2"/>
+        <v>0.14531250000000001</v>
       </c>
       <c r="C36" s="1">
         <v>0.15</v>
@@ -28708,7 +28734,8 @@
         <v>45596</v>
       </c>
       <c r="B37" s="1">
-        <v>0.149999999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.15</v>
       </c>
       <c r="C37" s="1">
         <v>0.15468750000000001</v>
@@ -28742,7 +28769,8 @@
         <v>45597</v>
       </c>
       <c r="B38" s="1">
-        <v>0.154687500000001</v>
+        <f t="shared" si="2"/>
+        <v>0.15468750000000001</v>
       </c>
       <c r="C38" s="1">
         <v>0.15937499999999999</v>
@@ -28776,7 +28804,8 @@
         <v>45598</v>
       </c>
       <c r="B39" s="1">
-        <v>0.15937499999999699</v>
+        <f t="shared" si="2"/>
+        <v>0.15937499999999999</v>
       </c>
       <c r="C39" s="1">
         <v>0.1640625</v>
@@ -28810,6 +28839,7 @@
         <v>45599</v>
       </c>
       <c r="B40" s="1">
+        <f t="shared" si="2"/>
         <v>0.1640625</v>
       </c>
       <c r="C40" s="1">
@@ -28844,7 +28874,8 @@
         <v>45600</v>
       </c>
       <c r="B41" s="1">
-        <v>0.16875000000000301</v>
+        <f t="shared" si="2"/>
+        <v>0.16875000000000001</v>
       </c>
       <c r="C41" s="1">
         <v>0.17343749999999999</v>
@@ -28878,7 +28909,8 @@
         <v>45601</v>
       </c>
       <c r="B42" s="1">
-        <v>0.173437499999999</v>
+        <f t="shared" si="2"/>
+        <v>0.17343749999999999</v>
       </c>
       <c r="C42" s="1">
         <v>0.17812500000000001</v>
@@ -28912,7 +28944,8 @@
         <v>45602</v>
       </c>
       <c r="B43" s="1">
-        <v>0.178125000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.17812500000000001</v>
       </c>
       <c r="C43" s="1">
         <v>0.18281249999999999</v>
@@ -28946,7 +28979,8 @@
         <v>45603</v>
       </c>
       <c r="B44" s="1">
-        <v>0.18281249999999699</v>
+        <f t="shared" si="2"/>
+        <v>0.18281249999999999</v>
       </c>
       <c r="C44" s="1">
         <v>0.1875</v>
@@ -28980,6 +29014,7 @@
         <v>45604</v>
       </c>
       <c r="B45" s="1">
+        <f t="shared" si="2"/>
         <v>0.1875</v>
       </c>
       <c r="C45" s="1">
@@ -29014,7 +29049,8 @@
         <v>45605</v>
       </c>
       <c r="B46" s="1">
-        <v>0.19218750000000301</v>
+        <f t="shared" si="2"/>
+        <v>0.19218750000000001</v>
       </c>
       <c r="C46" s="1">
         <v>0.19687499999999999</v>
@@ -29048,7 +29084,8 @@
         <v>45606</v>
       </c>
       <c r="B47" s="1">
-        <v>0.196874999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.19687499999999999</v>
       </c>
       <c r="C47" s="1">
         <v>0.20156250000000001</v>
@@ -29082,7 +29119,8 @@
         <v>45607</v>
       </c>
       <c r="B48" s="1">
-        <v>0.201562500000001</v>
+        <f t="shared" si="2"/>
+        <v>0.20156250000000001</v>
       </c>
       <c r="C48" s="1">
         <v>0.20624999999999999</v>
@@ -29116,7 +29154,8 @@
         <v>45608</v>
       </c>
       <c r="B49" s="1">
-        <v>0.20624999999999699</v>
+        <f t="shared" si="2"/>
+        <v>0.20624999999999999</v>
       </c>
       <c r="C49" s="1">
         <v>0.2109375</v>
@@ -29150,6 +29189,7 @@
         <v>45609</v>
       </c>
       <c r="B50" s="1">
+        <f t="shared" si="2"/>
         <v>0.2109375</v>
       </c>
       <c r="C50" s="1">
@@ -29184,7 +29224,8 @@
         <v>45610</v>
       </c>
       <c r="B51" s="1">
-        <v>0.21562500000000301</v>
+        <f t="shared" si="2"/>
+        <v>0.21562500000000001</v>
       </c>
       <c r="C51" s="1">
         <v>0.22031249999999999</v>
@@ -29218,7 +29259,8 @@
         <v>45611</v>
       </c>
       <c r="B52" s="1">
-        <v>0.220312499999999</v>
+        <f t="shared" si="2"/>
+        <v>0.22031249999999999</v>
       </c>
       <c r="C52" s="1">
         <v>0.22500000000000001</v>
@@ -29252,7 +29294,8 @@
         <v>45612</v>
       </c>
       <c r="B53" s="1">
-        <v>0.225000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C53" s="1">
         <v>0.22968749999999999</v>
@@ -29286,7 +29329,8 @@
         <v>45613</v>
       </c>
       <c r="B54" s="1">
-        <v>0.22968749999999699</v>
+        <f t="shared" si="2"/>
+        <v>0.22968749999999999</v>
       </c>
       <c r="C54" s="1">
         <v>0.234375</v>
@@ -29320,6 +29364,7 @@
         <v>45614</v>
       </c>
       <c r="B55" s="1">
+        <f t="shared" si="2"/>
         <v>0.234375</v>
       </c>
       <c r="C55" s="1">
@@ -29354,7 +29399,8 @@
         <v>45615</v>
       </c>
       <c r="B56" s="1">
-        <v>0.23906250000000301</v>
+        <f t="shared" si="2"/>
+        <v>0.23906250000000001</v>
       </c>
       <c r="C56" s="1">
         <v>0.24374999999999999</v>
@@ -29388,7 +29434,8 @@
         <v>45616</v>
       </c>
       <c r="B57" s="1">
-        <v>0.243749999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.24374999999999999</v>
       </c>
       <c r="C57" s="1">
         <v>0.24843750000000001</v>
@@ -29422,7 +29469,8 @@
         <v>45617</v>
       </c>
       <c r="B58" s="1">
-        <v>0.248437500000001</v>
+        <f t="shared" si="2"/>
+        <v>0.24843750000000001</v>
       </c>
       <c r="C58" s="1">
         <v>0.25312499999999999</v>
@@ -29440,9 +29488,15 @@
       <c r="I58" s="1">
         <v>3.4375000000000003E-2</v>
       </c>
-      <c r="J58" s="8"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
+      <c r="J58" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="59" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="17">
@@ -29450,7 +29504,8 @@
         <v>45618</v>
       </c>
       <c r="B59" s="1">
-        <v>0.25312499999999699</v>
+        <f t="shared" si="2"/>
+        <v>0.25312499999999999</v>
       </c>
       <c r="C59" s="1">
         <v>0.2578125</v>
@@ -29468,9 +29523,15 @@
       <c r="I59" s="1">
         <v>3.5011574074074098E-2</v>
       </c>
-      <c r="J59" s="8"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
+      <c r="J59" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="60" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="17">
@@ -29478,6 +29539,7 @@
         <v>45619</v>
       </c>
       <c r="B60" s="1">
+        <f t="shared" si="2"/>
         <v>0.2578125</v>
       </c>
       <c r="C60" s="1">
@@ -29496,9 +29558,15 @@
       <c r="I60" s="1">
         <v>3.56481481481482E-2</v>
       </c>
-      <c r="J60" s="8"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
+      <c r="J60" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="61" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="17">
@@ -29506,7 +29574,8 @@
         <v>45620</v>
       </c>
       <c r="B61" s="1">
-        <v>0.26250000000000301</v>
+        <f t="shared" si="2"/>
+        <v>0.26250000000000001</v>
       </c>
       <c r="C61" s="1">
         <v>0.26718750000000002</v>
@@ -29524,9 +29593,15 @@
       <c r="I61" s="1">
         <v>3.6284722222222301E-2</v>
       </c>
-      <c r="J61" s="8"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
+      <c r="J61" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="62" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="17">
@@ -29534,7 +29609,8 @@
         <v>45621</v>
       </c>
       <c r="B62" s="1">
-        <v>0.26718749999999902</v>
+        <f t="shared" si="2"/>
+        <v>0.26718750000000002</v>
       </c>
       <c r="C62" s="1">
         <v>0.27187499999999998</v>
@@ -29552,9 +29628,15 @@
       <c r="I62" s="1">
         <v>3.6921296296296299E-2</v>
       </c>
-      <c r="J62" s="8"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
+      <c r="J62" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="2">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="63" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="17">
@@ -29562,7 +29644,8 @@
         <v>45622</v>
       </c>
       <c r="B63" s="1">
-        <v>0.27187500000000098</v>
+        <f t="shared" si="2"/>
+        <v>0.27187499999999998</v>
       </c>
       <c r="C63" s="1">
         <v>0.27656249999999999</v>
@@ -29580,9 +29663,15 @@
       <c r="I63" s="1">
         <v>3.7557870370370401E-2</v>
       </c>
-      <c r="J63" s="8"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
+      <c r="J63" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="2">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="64" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="17">
@@ -29590,7 +29679,8 @@
         <v>45623</v>
       </c>
       <c r="B64" s="1">
-        <v>0.27656249999999699</v>
+        <f t="shared" si="2"/>
+        <v>0.27656249999999999</v>
       </c>
       <c r="C64" s="1">
         <v>0.28125</v>
@@ -29608,9 +29698,15 @@
       <c r="I64" s="1">
         <v>3.8194444444444503E-2</v>
       </c>
-      <c r="J64" s="8"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
+      <c r="J64" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="65" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="17">
@@ -29618,6 +29714,7 @@
         <v>45624</v>
       </c>
       <c r="B65" s="1">
+        <f t="shared" si="2"/>
         <v>0.28125</v>
       </c>
       <c r="C65" s="1">
@@ -29636,9 +29733,15 @@
       <c r="I65" s="1">
         <v>3.8831018518518501E-2</v>
       </c>
-      <c r="J65" s="8"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
+      <c r="J65" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="2">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="66" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="17">
@@ -29646,7 +29749,8 @@
         <v>45625</v>
       </c>
       <c r="B66" s="1">
-        <v>0.28593750000000301</v>
+        <f t="shared" si="2"/>
+        <v>0.28593750000000001</v>
       </c>
       <c r="C66" s="1">
         <v>0.29062500000000002</v>
@@ -29664,9 +29768,15 @@
       <c r="I66" s="1">
         <v>3.9467592592592603E-2</v>
       </c>
-      <c r="J66" s="8"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
+      <c r="J66" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="2">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="67" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="17">
@@ -29674,7 +29784,8 @@
         <v>45626</v>
       </c>
       <c r="B67" s="1">
-        <v>0.29062499999999902</v>
+        <f t="shared" si="2"/>
+        <v>0.29062500000000002</v>
       </c>
       <c r="C67" s="1">
         <v>0.29531249999999998</v>
@@ -29692,9 +29803,15 @@
       <c r="I67" s="1">
         <v>4.0104166666666698E-2</v>
       </c>
-      <c r="J67" s="8"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
+      <c r="J67" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="2">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="68" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="17">
@@ -29702,7 +29819,8 @@
         <v>45627</v>
       </c>
       <c r="B68" s="1">
-        <v>0.29531250000000098</v>
+        <f t="shared" si="2"/>
+        <v>0.29531249999999998</v>
       </c>
       <c r="C68" s="1">
         <v>0.3</v>
@@ -29720,9 +29838,15 @@
       <c r="I68" s="1">
         <v>4.07407407407408E-2</v>
       </c>
-      <c r="J68" s="8"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
+      <c r="J68" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="2">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="69" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="17">
@@ -29730,7 +29854,8 @@
         <v>45628</v>
       </c>
       <c r="B69" s="1">
-        <v>0.29999999999999699</v>
+        <f t="shared" si="2"/>
+        <v>0.3</v>
       </c>
       <c r="C69" s="1">
         <v>0.3046875</v>
@@ -29748,9 +29873,15 @@
       <c r="I69" s="1">
         <v>4.1377314814814797E-2</v>
       </c>
-      <c r="J69" s="8"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
+      <c r="J69" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="2">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="70" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="17">
@@ -29758,6 +29889,7 @@
         <v>45629</v>
       </c>
       <c r="B70" s="1">
+        <f t="shared" si="2"/>
         <v>0.3046875</v>
       </c>
       <c r="C70" s="1">
@@ -29776,17 +29908,24 @@
       <c r="I70" s="1">
         <v>4.2013888888888899E-2</v>
       </c>
-      <c r="J70" s="8"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
+      <c r="J70" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="2">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="71" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="17">
-        <f t="shared" ref="A71:A98" si="2">A70+1</f>
+        <f t="shared" ref="A71:A98" si="3">A70+1</f>
         <v>45630</v>
       </c>
       <c r="B71" s="1">
-        <v>0.30937500000000301</v>
+        <f t="shared" si="2"/>
+        <v>0.30937500000000001</v>
       </c>
       <c r="C71" s="1">
         <v>0.31406250000000002</v>
@@ -29795,7 +29934,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="17">
-        <f t="shared" ref="G71:G92" si="3">G70+1</f>
+        <f t="shared" ref="G71:G92" si="4">G70+1</f>
         <v>45636</v>
       </c>
       <c r="H71" s="1">
@@ -29804,17 +29943,24 @@
       <c r="I71" s="1">
         <v>4.2650462962963001E-2</v>
       </c>
-      <c r="J71" s="8"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
+      <c r="J71" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="2">
+        <v>0</v>
+      </c>
+      <c r="L71" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="72" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45631</v>
       </c>
       <c r="B72" s="1">
-        <v>0.31406250000000602</v>
+        <f t="shared" si="2"/>
+        <v>0.31406250000000002</v>
       </c>
       <c r="C72" s="1">
         <v>0.31874999999999998</v>
@@ -29823,7 +29969,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45637</v>
       </c>
       <c r="H72" s="1">
@@ -29832,17 +29978,24 @@
       <c r="I72" s="1">
         <v>4.3287037037037103E-2</v>
       </c>
-      <c r="J72" s="8"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
+      <c r="J72" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="2">
+        <v>0</v>
+      </c>
+      <c r="L72" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="73" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45632</v>
       </c>
       <c r="B73" s="1">
-        <v>0.31874999999999398</v>
+        <f t="shared" si="2"/>
+        <v>0.31874999999999998</v>
       </c>
       <c r="C73" s="1">
         <v>0.32343749999999999</v>
@@ -29851,7 +30004,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45638</v>
       </c>
       <c r="H73" s="1">
@@ -29860,17 +30013,24 @@
       <c r="I73" s="1">
         <v>4.3923611111111101E-2</v>
       </c>
-      <c r="J73" s="8"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
+      <c r="J73" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="2">
+        <v>0</v>
+      </c>
+      <c r="L73" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="74" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45633</v>
       </c>
       <c r="B74" s="1">
-        <v>0.32343749999999699</v>
+        <f t="shared" si="2"/>
+        <v>0.32343749999999999</v>
       </c>
       <c r="C74" s="1">
         <v>0.328125</v>
@@ -29879,7 +30039,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45639</v>
       </c>
       <c r="H74" s="1">
@@ -29888,16 +30048,23 @@
       <c r="I74" s="1">
         <v>4.4560185185185203E-2</v>
       </c>
-      <c r="J74" s="8"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
+      <c r="J74" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="2">
+        <v>0</v>
+      </c>
+      <c r="L74" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="75" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45634</v>
       </c>
       <c r="B75" s="1">
+        <f t="shared" si="2"/>
         <v>0.328125</v>
       </c>
       <c r="C75" s="1">
@@ -29907,7 +30074,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45640</v>
       </c>
       <c r="H75" s="1">
@@ -29916,17 +30083,24 @@
       <c r="I75" s="1">
         <v>4.5196759259259298E-2</v>
       </c>
-      <c r="J75" s="8"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
+      <c r="J75" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="2">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="76" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45635</v>
       </c>
       <c r="B76" s="1">
-        <v>0.33281250000000301</v>
+        <f t="shared" si="2"/>
+        <v>0.33281250000000001</v>
       </c>
       <c r="C76" s="1">
         <v>0.33750000000000002</v>
@@ -29935,7 +30109,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45641</v>
       </c>
       <c r="H76" s="1">
@@ -29944,17 +30118,24 @@
       <c r="I76" s="1">
         <v>4.5833333333333399E-2</v>
       </c>
-      <c r="J76" s="8"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
+      <c r="J76" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="2">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="77" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45636</v>
       </c>
       <c r="B77" s="1">
-        <v>0.33750000000000602</v>
+        <f t="shared" si="2"/>
+        <v>0.33750000000000002</v>
       </c>
       <c r="C77" s="1">
         <v>0.34218749999999998</v>
@@ -29963,7 +30144,7 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45642</v>
       </c>
       <c r="H77" s="1">
@@ -29972,17 +30153,24 @@
       <c r="I77" s="1">
         <v>4.6469907407407397E-2</v>
       </c>
-      <c r="J77" s="8"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
+      <c r="J77" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="2">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="78" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45637</v>
       </c>
       <c r="B78" s="1">
-        <v>0.34218749999999398</v>
+        <f t="shared" si="2"/>
+        <v>0.34218749999999998</v>
       </c>
       <c r="C78" s="1">
         <v>0.34687499999999999</v>
@@ -29991,7 +30179,7 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45643</v>
       </c>
       <c r="H78" s="1">
@@ -30000,17 +30188,24 @@
       <c r="I78" s="1">
         <v>4.7106481481481499E-2</v>
       </c>
-      <c r="J78" s="8"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
+      <c r="J78" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="2">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="79" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45638</v>
       </c>
       <c r="B79" s="1">
-        <v>0.34687499999999699</v>
+        <f t="shared" si="2"/>
+        <v>0.34687499999999999</v>
       </c>
       <c r="C79" s="1">
         <v>0.3515625</v>
@@ -30019,7 +30214,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45644</v>
       </c>
       <c r="H79" s="1">
@@ -30028,16 +30223,23 @@
       <c r="I79" s="1">
         <v>4.7743055555555601E-2</v>
       </c>
-      <c r="J79" s="8"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
+      <c r="J79" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="2">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="80" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45639</v>
       </c>
       <c r="B80" s="1">
+        <f t="shared" ref="B80:B98" si="5">C79</f>
         <v>0.3515625</v>
       </c>
       <c r="C80" s="1">
@@ -30047,7 +30249,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45645</v>
       </c>
       <c r="H80" s="1">
@@ -30056,17 +30258,24 @@
       <c r="I80" s="1">
         <v>4.8379629629629703E-2</v>
       </c>
-      <c r="J80" s="8"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
+      <c r="J80" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="2">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="81" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45640</v>
       </c>
       <c r="B81" s="1">
-        <v>0.35625000000000301</v>
+        <f t="shared" si="5"/>
+        <v>0.35625000000000001</v>
       </c>
       <c r="C81" s="1">
         <v>0.36093750000000002</v>
@@ -30075,7 +30284,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45646</v>
       </c>
       <c r="H81" s="1">
@@ -30084,17 +30293,24 @@
       <c r="I81" s="1">
         <v>4.9016203703703701E-2</v>
       </c>
-      <c r="J81" s="8"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
+      <c r="J81" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="2">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="82" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45641</v>
       </c>
       <c r="B82" s="1">
-        <v>0.36093750000000602</v>
+        <f t="shared" si="5"/>
+        <v>0.36093750000000002</v>
       </c>
       <c r="C82" s="1">
         <v>0.36562499999999998</v>
@@ -30103,7 +30319,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45647</v>
       </c>
       <c r="H82" s="1">
@@ -30112,17 +30328,24 @@
       <c r="I82" s="1">
         <v>4.9652777777777803E-2</v>
       </c>
-      <c r="J82" s="8"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
+      <c r="J82" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="2">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="83" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45642</v>
       </c>
       <c r="B83" s="1">
-        <v>0.36562499999999398</v>
+        <f t="shared" si="5"/>
+        <v>0.36562499999999998</v>
       </c>
       <c r="C83" s="1">
         <v>0.37031249999999999</v>
@@ -30131,7 +30354,7 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45648</v>
       </c>
       <c r="H83" s="1">
@@ -30140,17 +30363,24 @@
       <c r="I83" s="1">
         <v>5.0289351851851898E-2</v>
       </c>
-      <c r="J83" s="8"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
+      <c r="J83" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="2">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="84" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45643</v>
       </c>
       <c r="B84" s="1">
-        <v>0.37031249999999699</v>
+        <f t="shared" si="5"/>
+        <v>0.37031249999999999</v>
       </c>
       <c r="C84" s="1">
         <v>0.375</v>
@@ -30159,7 +30389,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45649</v>
       </c>
       <c r="H84" s="1">
@@ -30168,16 +30398,23 @@
       <c r="I84" s="1">
         <v>5.0925925925925999E-2</v>
       </c>
-      <c r="J84" s="8"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
+      <c r="J84" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="2">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="85" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45644</v>
       </c>
       <c r="B85" s="1">
+        <f t="shared" si="5"/>
         <v>0.375</v>
       </c>
       <c r="C85" s="1">
@@ -30187,7 +30424,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45650</v>
       </c>
       <c r="H85" s="1">
@@ -30196,17 +30433,24 @@
       <c r="I85" s="1">
         <v>5.1562499999999997E-2</v>
       </c>
-      <c r="J85" s="8"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
+      <c r="J85" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="2">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="86" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45645</v>
       </c>
       <c r="B86" s="1">
-        <v>0.37968750000000301</v>
+        <f t="shared" si="5"/>
+        <v>0.37968750000000001</v>
       </c>
       <c r="C86" s="1">
         <v>0.38437500000000002</v>
@@ -30215,7 +30459,7 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45651</v>
       </c>
       <c r="H86" s="1">
@@ -30224,17 +30468,24 @@
       <c r="I86" s="1">
         <v>5.2199074074074099E-2</v>
       </c>
-      <c r="J86" s="8"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
+      <c r="J86" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="2">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="87" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45646</v>
       </c>
       <c r="B87" s="1">
-        <v>0.38437500000000602</v>
+        <f t="shared" si="5"/>
+        <v>0.38437500000000002</v>
       </c>
       <c r="C87" s="1">
         <v>0.38906249999999998</v>
@@ -30243,7 +30494,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45652</v>
       </c>
       <c r="H87" s="1">
@@ -30252,17 +30503,24 @@
       <c r="I87" s="1">
         <v>5.2835648148148201E-2</v>
       </c>
-      <c r="J87" s="8"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
+      <c r="J87" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="2">
+        <v>0</v>
+      </c>
+      <c r="L87" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="88" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45647</v>
       </c>
       <c r="B88" s="1">
-        <v>0.38906249999999398</v>
+        <f t="shared" si="5"/>
+        <v>0.38906249999999998</v>
       </c>
       <c r="C88" s="1">
         <v>0.39374999999999999</v>
@@ -30271,7 +30529,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45653</v>
       </c>
       <c r="H88" s="1">
@@ -30280,17 +30538,24 @@
       <c r="I88" s="1">
         <v>5.3472222222222303E-2</v>
       </c>
-      <c r="J88" s="8"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
+      <c r="J88" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="2">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="89" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45648</v>
       </c>
       <c r="B89" s="1">
-        <v>0.39374999999999699</v>
+        <f t="shared" si="5"/>
+        <v>0.39374999999999999</v>
       </c>
       <c r="C89" s="1">
         <v>0.3984375</v>
@@ -30299,7 +30564,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45654</v>
       </c>
       <c r="H89" s="1">
@@ -30308,16 +30573,23 @@
       <c r="I89" s="1">
         <v>5.4108796296296301E-2</v>
       </c>
-      <c r="J89" s="8"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
+      <c r="J89" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="2">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="90" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45649</v>
       </c>
       <c r="B90" s="1">
+        <f t="shared" si="5"/>
         <v>0.3984375</v>
       </c>
       <c r="C90" s="1">
@@ -30327,7 +30599,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45655</v>
       </c>
       <c r="H90" s="1">
@@ -30336,17 +30608,24 @@
       <c r="I90" s="1">
         <v>5.4745370370370403E-2</v>
       </c>
-      <c r="J90" s="8"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
+      <c r="J90" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="2">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="91" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45650</v>
       </c>
       <c r="B91" s="1">
-        <v>0.40312500000000301</v>
+        <f t="shared" si="5"/>
+        <v>0.40312500000000001</v>
       </c>
       <c r="C91" s="1">
         <v>0.40781250000000002</v>
@@ -30355,7 +30634,7 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45656</v>
       </c>
       <c r="H91" s="1">
@@ -30364,17 +30643,24 @@
       <c r="I91" s="1">
         <v>5.5381944444444497E-2</v>
       </c>
-      <c r="J91" s="8"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
+      <c r="J91" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="2">
+        <v>0</v>
+      </c>
+      <c r="L91" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="92" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45651</v>
       </c>
       <c r="B92" s="1">
-        <v>0.40781250000000602</v>
+        <f t="shared" si="5"/>
+        <v>0.40781250000000002</v>
       </c>
       <c r="C92" s="1">
         <v>0.41249999999999998</v>
@@ -30383,7 +30669,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45657</v>
       </c>
       <c r="H92" s="1">
@@ -30392,17 +30678,24 @@
       <c r="I92" s="1">
         <v>5.6018518518518502E-2</v>
       </c>
-      <c r="J92" s="8"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
+      <c r="J92" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="2">
+        <v>0</v>
+      </c>
+      <c r="L92" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="93" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45652</v>
       </c>
       <c r="B93" s="1">
-        <v>0.41249999999999398</v>
+        <f t="shared" si="5"/>
+        <v>0.41249999999999998</v>
       </c>
       <c r="C93" s="1">
         <v>0.41718749999999999</v>
@@ -30415,11 +30708,12 @@
     </row>
     <row r="94" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45653</v>
       </c>
       <c r="B94" s="1">
-        <v>0.41718749999999699</v>
+        <f t="shared" si="5"/>
+        <v>0.41718749999999999</v>
       </c>
       <c r="C94" s="1">
         <v>0.421875</v>
@@ -30432,10 +30726,11 @@
     </row>
     <row r="95" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45654</v>
       </c>
       <c r="B95" s="1">
+        <f t="shared" si="5"/>
         <v>0.421875</v>
       </c>
       <c r="C95" s="1">
@@ -30449,11 +30744,12 @@
     </row>
     <row r="96" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45655</v>
       </c>
       <c r="B96" s="1">
-        <v>0.42656250000000301</v>
+        <f t="shared" si="5"/>
+        <v>0.42656250000000001</v>
       </c>
       <c r="C96" s="1">
         <v>0.43125000000000002</v>
@@ -30466,11 +30762,12 @@
     </row>
     <row r="97" spans="1:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45656</v>
       </c>
       <c r="B97" s="1">
-        <v>0.43125000000000602</v>
+        <f t="shared" si="5"/>
+        <v>0.43125000000000002</v>
       </c>
       <c r="C97" s="1">
         <v>0.43593749999999998</v>
@@ -30483,11 +30780,12 @@
     </row>
     <row r="98" spans="1:11" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45657</v>
       </c>
       <c r="B98" s="1">
-        <v>0.43593749999999398</v>
+        <f t="shared" si="5"/>
+        <v>0.43593749999999998</v>
       </c>
       <c r="C98" s="1">
         <v>0.44062499999999999</v>
@@ -30519,8 +30817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAD7C17-09EB-4F73-A124-CCFB578ED3D8}">
   <dimension ref="B2:I230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:I29"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30532,7 +30830,7 @@
   <sheetData>
     <row r="2" spans="2:9" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B2" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -30547,25 +30845,25 @@
         <v>0</v>
       </c>
       <c r="C3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="F3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="G3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="H3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="I3" s="23" t="s">
         <v>28</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -31248,61 +31546,131 @@
       <c r="B30" s="27">
         <v>45597</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
+      <c r="C30" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="25" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="31" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="27">
         <v>45598</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
+      <c r="C31" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="32" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="27">
         <v>45599</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
+      <c r="C32" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="33" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="27">
         <v>45600</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
+      <c r="C33" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="25" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="34" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="27">
         <v>45601</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
+      <c r="C34" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="25" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="35" spans="2:9" s="24" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="27">
